--- a/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_19.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/420000/Output_4_19.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>755261.5266349496</v>
+        <v>820968.5792013303</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>405687.0519298024</v>
+        <v>405687.0519298021</v>
       </c>
     </row>
     <row r="8">
@@ -664,13 +664,13 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>212.2853856434421</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="F2" t="n">
-        <v>202.2946864288972</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>241.0142888776591</v>
@@ -703,7 +703,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="Y2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -803,10 +803,10 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>135.4141600157168</v>
       </c>
       <c r="Y3" t="n">
-        <v>29.79900896488263</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -873,13 +873,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,16 +895,16 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="C5" t="n">
-        <v>241.0142888776591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
       <c r="E5" t="n">
-        <v>40.47627913313511</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -919,7 +919,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>149.8691179411497</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>241.0142888776591</v>
+        <v>102.3382270926889</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -974,25 +974,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>0.338958501581867</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1025,25 +1025,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>61.77856551940157</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1107,10 +1107,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="U7" t="n">
-        <v>133.186967585368</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1132,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>90.38893773807641</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1156,7 +1156,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1177,31 +1177,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>9.990699214544804</v>
+        <v>3.265316057196634</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y8" t="n">
         <v>241.0142888776591</v>
-      </c>
-      <c r="Y8" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1217,16 +1217,16 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>12.41656858543522</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1235,7 +1235,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1259,28 +1259,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>50.05769526855297</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -1369,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1387,10 +1387,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>172.6790509211284</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1417,28 +1417,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>86.42041023393324</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>160.1016216332609</v>
       </c>
     </row>
     <row r="12">
@@ -1460,16 +1460,16 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>70.7895772424515</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1496,16 +1496,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>21.73120016704191</v>
       </c>
       <c r="S12" t="n">
         <v>161.6448423772186</v>
       </c>
       <c r="T12" t="n">
-        <v>118.7001499689964</v>
+        <v>0</v>
       </c>
       <c r="U12" t="n">
-        <v>225.9058271976456</v>
+        <v>0</v>
       </c>
       <c r="V12" t="n">
         <v>232.8005871494253</v>
@@ -1545,7 +1545,7 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>48.3998957970083</v>
+        <v>48.39989579700872</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,19 +1615,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>376.4791967054147</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>414.2926691378088</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1654,19 +1654,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>86.4204102339333</v>
+        <v>86.42041023393325</v>
       </c>
       <c r="S14" t="n">
-        <v>186.0031364379248</v>
+        <v>186.0031364379247</v>
       </c>
       <c r="T14" t="n">
         <v>218.674275242386</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>251.2648474376504</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1675,7 +1675,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>61.46063473335937</v>
       </c>
     </row>
     <row r="15">
@@ -1685,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>103.8225640931809</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C15" t="n">
         <v>172.7084989883157</v>
@@ -1697,7 +1697,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F15" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
         <v>0</v>
@@ -1736,7 +1736,7 @@
         <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>0</v>
+        <v>82.35859283669835</v>
       </c>
       <c r="T15" t="n">
         <v>197.9863995095175</v>
@@ -1776,13 +1776,13 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.78525080977154</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1821,13 +1821,13 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>193.8209438199399</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -1843,28 +1843,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>62.8536265514985</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>414.2926691378088</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>77.83952465238846</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1891,13 +1891,13 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>86.4204102339333</v>
+        <v>86.42041023393324</v>
       </c>
       <c r="S17" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>0</v>
@@ -1906,13 +1906,13 @@
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -1922,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>81.91450423694262</v>
+        <v>89.62278728060195</v>
       </c>
       <c r="C18" t="n">
         <v>172.7084989883157</v>
@@ -1931,16 +1931,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G18" t="n">
-        <v>136.8030829366063</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1970,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>66.60350559207137</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>161.6448423772186</v>
@@ -2004,22 +2004,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>145.5592236006669</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>167.537897457236</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>39.87345846881815</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2086,22 +2086,22 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>319.2915024054857</v>
+        <v>268.8193172357596</v>
       </c>
       <c r="H20" t="n">
         <v>329.1304393464753</v>
       </c>
       <c r="I20" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2128,10 +2128,10 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>86.4204102339333</v>
+        <v>86.42041023393324</v>
       </c>
       <c r="S20" t="n">
-        <v>186.0031364379248</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>218.674275242386</v>
@@ -2143,13 +2143,13 @@
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2168,10 +2168,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E21" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -2180,7 +2180,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>70.7895772424515</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>161.6448423772186</v>
       </c>
       <c r="T21" t="n">
-        <v>197.9863995095175</v>
+        <v>60.4864407885623</v>
       </c>
       <c r="U21" t="n">
         <v>225.9058271976456</v>
@@ -2222,7 +2222,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W21" t="n">
-        <v>172.408733620398</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X21" t="n">
         <v>205.7729852034775</v>
@@ -2247,10 +2247,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>47.38698117337069</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -2295,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>193.8209438199395</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -2326,19 +2326,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>151.3259712889447</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I23" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>28.51723896239744</v>
       </c>
       <c r="T23" t="n">
         <v>216.4483203576578</v>
@@ -2377,16 +2377,16 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2417,7 +2417,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I24" t="n">
-        <v>61.42221998250796</v>
+        <v>61.4222199825084</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2487,7 +2487,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -2535,16 +2535,16 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>23.35455705266789</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>11.0042946710584</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="26">
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>413.784170020795</v>
+        <v>72.30129154426808</v>
       </c>
       <c r="H26" t="n">
-        <v>304.0470687359146</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2602,13 +2602,13 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S26" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
         <v>0</v>
@@ -2648,7 +2648,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G27" t="n">
-        <v>136.5310119231965</v>
+        <v>136.5310119231963</v>
       </c>
       <c r="H27" t="n">
         <v>104.3883541553076</v>
@@ -2681,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>49.71123688229296</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S27" t="n">
         <v>156.5912426325231</v>
@@ -2769,16 +2769,16 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>94.63926978364057</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>128.7835007017901</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -2791,19 +2791,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>141.3312828899238</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>413.784170020795</v>
@@ -2839,22 +2839,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U29" t="n">
-        <v>251.2241675082893</v>
+        <v>19.60191739842427</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
         <v>0</v>
@@ -2949,19 +2949,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>59.72683757586846</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3003,13 +3003,13 @@
         <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>156.1271626621471</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -3031,13 +3031,13 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>228.5220141215205</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -3046,7 +3046,7 @@
         <v>413.784170020795</v>
       </c>
       <c r="H32" t="n">
-        <v>247.8767211222546</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3076,7 +3076,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -3085,19 +3085,19 @@
         <v>216.4483203576578</v>
       </c>
       <c r="U32" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,19 +3189,19 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>59.7268375758684</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>83.59830597394803</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -3265,28 +3265,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
         <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>59.54837421581896</v>
       </c>
       <c r="E35" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F35" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
         <v>413.784170020795</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I35" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3313,13 +3313,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -3328,13 +3328,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W35" t="n">
-        <v>111.0497046617688</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X35" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y35" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3359,7 +3359,7 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G36" t="n">
-        <v>136.5310119231963</v>
+        <v>136.5310119231965</v>
       </c>
       <c r="H36" t="n">
         <v>104.3883541553076</v>
@@ -3392,7 +3392,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229296</v>
       </c>
       <c r="S36" t="n">
         <v>156.5912426325231</v>
@@ -3426,16 +3426,16 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -3483,16 +3483,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>85.87170836083649</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>208.3423105940807</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3502,22 +3502,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F38" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3553,25 +3553,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T38" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>33.24631426695492</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W38" t="n">
-        <v>323.991859522895</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -3602,7 +3602,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I39" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250796</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>49.71123688229251</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S39" t="n">
         <v>156.5912426325231</v>
@@ -3663,25 +3663,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>4.407706342588605</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H40" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T40" t="n">
-        <v>146.2546375217499</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3729,7 +3729,7 @@
         <v>0</v>
       </c>
       <c r="Y40" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -3742,10 +3742,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>221.0021786982958</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3757,10 +3757,10 @@
         <v>413.784170020795</v>
       </c>
       <c r="H41" t="n">
-        <v>79.49282700064475</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3787,13 +3787,13 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S41" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
         <v>0</v>
@@ -3805,10 +3805,10 @@
         <v>0</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="42">
@@ -3839,7 +3839,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I42" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -3909,13 +3909,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3954,10 +3954,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>259.135610196586</v>
       </c>
       <c r="V43" t="n">
-        <v>7.634490799661804</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3979,22 +3979,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C44" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>90.35697730768484</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G44" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4024,13 +4024,13 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>54.47840257481172</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U44" t="n">
         <v>251.2241675082893</v>
@@ -4039,10 +4039,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>298.655197404753</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4073,10 +4073,10 @@
         <v>136.5310119231965</v>
       </c>
       <c r="H45" t="n">
-        <v>104.3883541553069</v>
+        <v>104.3883541553076</v>
       </c>
       <c r="I45" t="n">
-        <v>61.42221998250819</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4103,7 +4103,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>49.71123688229332</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S45" t="n">
         <v>156.5912426325231</v>
@@ -4137,7 +4137,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4146,10 +4146,10 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>163.2123634091011</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4182,16 +4182,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>146.6651919801579</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>55.90301252244922</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4200,10 +4200,10 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,16 +4306,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C2" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D2" t="n">
-        <v>467.067986854209</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="E2" t="n">
-        <v>467.067986854209</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="F2" t="n">
         <v>262.7299197543128</v>
@@ -4351,31 +4351,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="W2" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="X2" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y2" t="n">
-        <v>467.067986854209</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="3">
@@ -4415,43 +4415,43 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L3" t="n">
-        <v>65.60123993063803</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>234.810827406191</v>
       </c>
       <c r="N3" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O3" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P3" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q3" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="U3" t="n">
-        <v>735.8335372470253</v>
+        <v>634.6640077999109</v>
       </c>
       <c r="V3" t="n">
-        <v>500.6814290152826</v>
+        <v>399.5118995681682</v>
       </c>
       <c r="W3" t="n">
-        <v>257.2326523711826</v>
+        <v>156.0631229240681</v>
       </c>
       <c r="X3" t="n">
-        <v>49.38115216564972</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y3" t="n">
         <v>19.28114311021272</v>
@@ -4521,10 +4521,10 @@
         <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
         <v>19.28114311021272</v>
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>315.6850394389064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="C5" t="n">
-        <v>72.23626279480629</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="D5" t="n">
-        <v>72.23626279480629</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4594,25 +4594,25 @@
         <v>802.5825927271064</v>
       </c>
       <c r="S5" t="n">
-        <v>802.5825927271064</v>
+        <v>591.4512093066566</v>
       </c>
       <c r="T5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="U5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="V5" t="n">
-        <v>802.5825927271064</v>
+        <v>366.1018663125844</v>
       </c>
       <c r="W5" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="X5" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="Y5" t="n">
-        <v>559.1338160830064</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="6">
@@ -4622,22 +4622,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>20.03527576299844</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="C6" t="n">
-        <v>20.03527576299844</v>
+        <v>588.1108339952409</v>
       </c>
       <c r="D6" t="n">
-        <v>20.03527576299844</v>
+        <v>439.1764243339896</v>
       </c>
       <c r="E6" t="n">
-        <v>20.03527576299844</v>
+        <v>279.9389693285341</v>
       </c>
       <c r="F6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="G6" t="n">
-        <v>20.03527576299844</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
         <v>20.03527576299844</v>
@@ -4652,7 +4652,7 @@
         <v>19.28114311021272</v>
       </c>
       <c r="L6" t="n">
-        <v>248.2447175439888</v>
+        <v>249.2442489785619</v>
       </c>
       <c r="M6" t="n">
         <v>486.8488635328713</v>
@@ -4673,25 +4673,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>901.6545640768973</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T6" t="n">
-        <v>699.4679694356633</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U6" t="n">
-        <v>471.2443511720524</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V6" t="n">
-        <v>471.2443511720524</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="W6" t="n">
-        <v>227.7955745279523</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="X6" t="n">
-        <v>227.7955745279523</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="Y6" t="n">
-        <v>20.03527576299844</v>
+        <v>588.4532163200711</v>
       </c>
     </row>
     <row r="7">
@@ -4755,7 +4755,7 @@
         <v>153.8134336004835</v>
       </c>
       <c r="T7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U7" t="n">
         <v>19.28114311021272</v>
@@ -4780,28 +4780,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4825,31 +4825,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q8" t="n">
-        <v>953.9655401424092</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>960.7588564629629</v>
       </c>
       <c r="S8" t="n">
-        <v>591.4512093066566</v>
+        <v>749.627473042513</v>
       </c>
       <c r="T8" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="U8" t="n">
-        <v>366.1018663125844</v>
+        <v>749.627473042513</v>
       </c>
       <c r="V8" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="W8" t="n">
-        <v>366.1018663125844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="X8" t="n">
-        <v>122.6530896684844</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="Y8" t="n">
-        <v>122.6530896684844</v>
+        <v>262.7299197543128</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>338.3492772117056</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>179.1118222062501</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>32.57726423313503</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>74.24228005117135</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>542.809531908403</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T9" t="n">
-        <v>487.2836868729568</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U9" t="n">
-        <v>487.2836868729568</v>
+        <v>913.4938269565423</v>
       </c>
       <c r="V9" t="n">
-        <v>487.2836868729568</v>
+        <v>678.3417187247995</v>
       </c>
       <c r="W9" t="n">
-        <v>487.2836868729568</v>
+        <v>434.8929420806995</v>
       </c>
       <c r="X9" t="n">
-        <v>487.2836868729568</v>
+        <v>227.0414418751666</v>
       </c>
       <c r="Y9" t="n">
-        <v>487.2836868729568</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -5017,37 +5017,37 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>996.5595822047358</v>
+        <v>1012.229941632679</v>
       </c>
       <c r="C11" t="n">
-        <v>627.5970652643241</v>
+        <v>1012.229941632679</v>
       </c>
       <c r="D11" t="n">
-        <v>627.5970652643241</v>
+        <v>1012.229941632679</v>
       </c>
       <c r="E11" t="n">
-        <v>627.5970652643241</v>
+        <v>626.4416890344348</v>
       </c>
       <c r="F11" t="n">
-        <v>216.6111604747165</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="G11" t="n">
-        <v>216.6111604747165</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="H11" t="n">
-        <v>42.18787671600103</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I11" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="J11" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856225</v>
       </c>
       <c r="K11" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L11" t="n">
-        <v>683.3219880803413</v>
+        <v>683.3219880803412</v>
       </c>
       <c r="M11" t="n">
         <v>1075.883192613821</v>
@@ -5059,34 +5059,34 @@
         <v>1777.842707170708</v>
       </c>
       <c r="P11" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755288</v>
       </c>
       <c r="Q11" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R11" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129413</v>
       </c>
       <c r="S11" t="n">
-        <v>2109.393835800051</v>
+        <v>2022.100492129413</v>
       </c>
       <c r="T11" t="n">
-        <v>2109.393835800051</v>
+        <v>1801.217385823972</v>
       </c>
       <c r="U11" t="n">
-        <v>2109.393835800051</v>
+        <v>1547.414509624326</v>
       </c>
       <c r="V11" t="n">
-        <v>2109.393835800051</v>
+        <v>1547.414509624326</v>
       </c>
       <c r="W11" t="n">
-        <v>1756.625180529937</v>
+        <v>1547.414509624326</v>
       </c>
       <c r="X11" t="n">
-        <v>1383.159422268857</v>
+        <v>1173.948751363246</v>
       </c>
       <c r="Y11" t="n">
-        <v>1383.159422268857</v>
+        <v>1012.229941632679</v>
       </c>
     </row>
     <row r="12">
@@ -5096,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>524.8127706638348</v>
+        <v>850.9489090472701</v>
       </c>
       <c r="C12" t="n">
-        <v>350.3597413827078</v>
+        <v>676.4958797661432</v>
       </c>
       <c r="D12" t="n">
-        <v>201.4253317214565</v>
+        <v>527.5614701048919</v>
       </c>
       <c r="E12" t="n">
-        <v>42.18787671600103</v>
+        <v>368.3240150994363</v>
       </c>
       <c r="F12" t="n">
-        <v>42.18787671600103</v>
+        <v>221.7894571263213</v>
       </c>
       <c r="G12" t="n">
-        <v>42.18787671600103</v>
+        <v>221.7894571263213</v>
       </c>
       <c r="H12" t="n">
-        <v>42.18787671600103</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="I12" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="J12" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="K12" t="n">
-        <v>42.18787671600103</v>
+        <v>253.9410299829671</v>
       </c>
       <c r="L12" t="n">
-        <v>371.2691274247622</v>
+        <v>508.9597813494097</v>
       </c>
       <c r="M12" t="n">
-        <v>827.1688172098177</v>
+        <v>964.8594711344653</v>
       </c>
       <c r="N12" t="n">
-        <v>1310.841828599075</v>
+        <v>1448.532482523723</v>
       </c>
       <c r="O12" t="n">
-        <v>1686.892462576445</v>
+        <v>1824.583116501093</v>
       </c>
       <c r="P12" t="n">
-        <v>1971.703181875405</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="Q12" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R12" t="n">
-        <v>2109.393835800051</v>
+        <v>2087.443128560616</v>
       </c>
       <c r="S12" t="n">
-        <v>1946.116217237204</v>
+        <v>1924.165509997769</v>
       </c>
       <c r="T12" t="n">
-        <v>1826.21707585438</v>
+        <v>1924.165509997769</v>
       </c>
       <c r="U12" t="n">
-        <v>1598.029371614334</v>
+        <v>1924.165509997769</v>
       </c>
       <c r="V12" t="n">
-        <v>1362.877263382591</v>
+        <v>1689.013401766026</v>
       </c>
       <c r="W12" t="n">
-        <v>1108.63990665439</v>
+        <v>1434.776045037825</v>
       </c>
       <c r="X12" t="n">
-        <v>900.7884064488567</v>
+        <v>1226.924544832292</v>
       </c>
       <c r="Y12" t="n">
-        <v>693.0281076839028</v>
+        <v>1019.164246067338</v>
       </c>
     </row>
     <row r="13">
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>237.9666078472531</v>
+        <v>237.9666078472536</v>
       </c>
       <c r="C13" t="n">
-        <v>237.9666078472531</v>
+        <v>237.9666078472536</v>
       </c>
       <c r="D13" t="n">
-        <v>237.9666078472531</v>
+        <v>237.9666078472536</v>
       </c>
       <c r="E13" t="n">
-        <v>237.9666078472531</v>
+        <v>237.9666078472536</v>
       </c>
       <c r="F13" t="n">
-        <v>91.07666034934275</v>
+        <v>91.0766603493432</v>
       </c>
       <c r="G13" t="n">
-        <v>91.07666034934275</v>
+        <v>91.0766603493432</v>
       </c>
       <c r="H13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="I13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="J13" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="K13" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701806</v>
       </c>
       <c r="L13" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081032</v>
       </c>
       <c r="M13" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053808</v>
       </c>
       <c r="N13" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503605</v>
       </c>
       <c r="O13" t="n">
-        <v>475.8277896871617</v>
+        <v>475.8277896871621</v>
       </c>
       <c r="P13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="Q13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="R13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="S13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="T13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="U13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="V13" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="W13" t="n">
-        <v>237.9666078472531</v>
+        <v>237.9666078472536</v>
       </c>
       <c r="X13" t="n">
-        <v>237.9666078472531</v>
+        <v>237.9666078472536</v>
       </c>
       <c r="Y13" t="n">
-        <v>237.9666078472531</v>
+        <v>237.9666078472536</v>
       </c>
     </row>
     <row r="14">
@@ -5254,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1226.735589761946</v>
+        <v>966.3882170572355</v>
       </c>
       <c r="C14" t="n">
-        <v>1226.735589761946</v>
+        <v>966.3882170572355</v>
       </c>
       <c r="D14" t="n">
-        <v>1226.735589761946</v>
+        <v>966.3882170572355</v>
       </c>
       <c r="E14" t="n">
-        <v>840.9473371637016</v>
+        <v>966.3882170572355</v>
       </c>
       <c r="F14" t="n">
-        <v>460.6653202895453</v>
+        <v>966.3882170572355</v>
       </c>
       <c r="G14" t="n">
-        <v>42.18787671600103</v>
+        <v>547.9107734836912</v>
       </c>
       <c r="H14" t="n">
-        <v>42.18787671600103</v>
+        <v>215.4557842448272</v>
       </c>
       <c r="I14" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="J14" t="n">
-        <v>115.2290882856226</v>
+        <v>115.2290882856227</v>
       </c>
       <c r="K14" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953285</v>
       </c>
       <c r="L14" t="n">
-        <v>683.321988080341</v>
+        <v>683.3219880803413</v>
       </c>
       <c r="M14" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N14" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O14" t="n">
         <v>1777.842707170708</v>
       </c>
       <c r="P14" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755288</v>
       </c>
       <c r="Q14" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R14" t="n">
-        <v>2022.100492129412</v>
+        <v>2022.100492129413</v>
       </c>
       <c r="S14" t="n">
-        <v>1834.218536131508</v>
+        <v>1834.218536131509</v>
       </c>
       <c r="T14" t="n">
-        <v>1613.335429826068</v>
+        <v>1613.335429826069</v>
       </c>
       <c r="U14" t="n">
-        <v>1613.335429826068</v>
+        <v>1359.532553626422</v>
       </c>
       <c r="V14" t="n">
-        <v>1613.335429826068</v>
+        <v>1028.469666282851</v>
       </c>
       <c r="W14" t="n">
-        <v>1613.335429826068</v>
+        <v>1028.469666282851</v>
       </c>
       <c r="X14" t="n">
-        <v>1613.335429826068</v>
+        <v>1028.469666282851</v>
       </c>
       <c r="Y14" t="n">
-        <v>1613.335429826068</v>
+        <v>966.3882170572355</v>
       </c>
     </row>
     <row r="15">
@@ -5333,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>671.3473286369498</v>
+        <v>524.8127706638348</v>
       </c>
       <c r="C15" t="n">
-        <v>496.8942993558228</v>
+        <v>350.3597413827079</v>
       </c>
       <c r="D15" t="n">
-        <v>347.9598896945715</v>
+        <v>201.4253317214566</v>
       </c>
       <c r="E15" t="n">
-        <v>188.7224346891161</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="F15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="G15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="H15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="I15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="J15" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="K15" t="n">
-        <v>253.941029982967</v>
+        <v>253.9410299829671</v>
       </c>
       <c r="L15" t="n">
-        <v>600.0736727994083</v>
+        <v>600.0736727994085</v>
       </c>
       <c r="M15" t="n">
         <v>1055.973362584464</v>
       </c>
       <c r="N15" t="n">
-        <v>1539.646373973721</v>
+        <v>1310.841828599076</v>
       </c>
       <c r="O15" t="n">
-        <v>1915.697007951092</v>
+        <v>1686.892462576446</v>
       </c>
       <c r="P15" t="n">
-        <v>2109.393835800051</v>
+        <v>1971.703181875405</v>
       </c>
       <c r="Q15" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R15" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S15" t="n">
-        <v>2109.393835800051</v>
+        <v>2026.203337985206</v>
       </c>
       <c r="T15" t="n">
-        <v>1909.407573669226</v>
+        <v>1826.21707585438</v>
       </c>
       <c r="U15" t="n">
-        <v>1681.21986942918</v>
+        <v>1598.029371614334</v>
       </c>
       <c r="V15" t="n">
-        <v>1446.067761197437</v>
+        <v>1362.877263382591</v>
       </c>
       <c r="W15" t="n">
-        <v>1191.830404469235</v>
+        <v>1108.63990665439</v>
       </c>
       <c r="X15" t="n">
-        <v>983.9789042637026</v>
+        <v>900.7884064488567</v>
       </c>
       <c r="Y15" t="n">
-        <v>776.2186054987487</v>
+        <v>693.0281076839028</v>
       </c>
     </row>
     <row r="16">
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>272.6992896783271</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="C16" t="n">
-        <v>272.6992896783271</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="D16" t="n">
-        <v>272.6992896783271</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="E16" t="n">
-        <v>272.6992896783271</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="F16" t="n">
-        <v>125.8093421804167</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="G16" t="n">
-        <v>125.8093421804167</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="H16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="I16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="J16" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="K16" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701806</v>
       </c>
       <c r="L16" t="n">
-        <v>166.2559978081031</v>
+        <v>166.2559978081032</v>
       </c>
       <c r="M16" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053807</v>
       </c>
       <c r="N16" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503604</v>
       </c>
       <c r="O16" t="n">
-        <v>475.8277896871618</v>
+        <v>475.827789687162</v>
       </c>
       <c r="P16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="Q16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="R16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="S16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="T16" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="U16" t="n">
-        <v>527.3837778842139</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="V16" t="n">
-        <v>272.6992896783271</v>
+        <v>331.6050467529616</v>
       </c>
       <c r="W16" t="n">
-        <v>272.6992896783271</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="X16" t="n">
-        <v>272.6992896783271</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="Y16" t="n">
-        <v>272.6992896783271</v>
+        <v>42.18787671600105</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>849.7303395891761</v>
+        <v>1282.731996795177</v>
       </c>
       <c r="C17" t="n">
-        <v>849.7303395891761</v>
+        <v>1282.731996795177</v>
       </c>
       <c r="D17" t="n">
-        <v>491.4646409824256</v>
+        <v>1282.731996795177</v>
       </c>
       <c r="E17" t="n">
-        <v>105.6763883841813</v>
+        <v>1282.731996795177</v>
       </c>
       <c r="F17" t="n">
-        <v>42.18787671600103</v>
+        <v>871.7460920055694</v>
       </c>
       <c r="G17" t="n">
-        <v>42.18787671600103</v>
+        <v>453.2686484320251</v>
       </c>
       <c r="H17" t="n">
-        <v>42.18787671600103</v>
+        <v>120.8136591931611</v>
       </c>
       <c r="I17" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="J17" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856227</v>
       </c>
       <c r="K17" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953286</v>
       </c>
       <c r="L17" t="n">
-        <v>683.3219880803409</v>
+        <v>683.3219880803413</v>
       </c>
       <c r="M17" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N17" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O17" t="n">
         <v>1777.842707170708</v>
       </c>
       <c r="P17" t="n">
-        <v>2011.299366755287</v>
+        <v>2011.299366755288</v>
       </c>
       <c r="Q17" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R17" t="n">
-        <v>2022.100492129412</v>
+        <v>2022.100492129413</v>
       </c>
       <c r="S17" t="n">
-        <v>1834.218536131508</v>
+        <v>2022.100492129413</v>
       </c>
       <c r="T17" t="n">
-        <v>1613.335429826068</v>
+        <v>2022.100492129413</v>
       </c>
       <c r="U17" t="n">
-        <v>1613.335429826068</v>
+        <v>2022.100492129413</v>
       </c>
       <c r="V17" t="n">
-        <v>1613.335429826068</v>
+        <v>2022.100492129413</v>
       </c>
       <c r="W17" t="n">
-        <v>1613.335429826068</v>
+        <v>1669.331836859299</v>
       </c>
       <c r="X17" t="n">
-        <v>1239.869671564988</v>
+        <v>1669.331836859299</v>
       </c>
       <c r="Y17" t="n">
-        <v>849.7303395891761</v>
+        <v>1669.331836859299</v>
       </c>
     </row>
     <row r="18">
@@ -5570,76 +5570,76 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>462.9227951894229</v>
+        <v>522.4129189756986</v>
       </c>
       <c r="C18" t="n">
-        <v>288.4697659082959</v>
+        <v>347.9598896945716</v>
       </c>
       <c r="D18" t="n">
-        <v>288.4697659082959</v>
+        <v>347.9598896945716</v>
       </c>
       <c r="E18" t="n">
-        <v>288.4697659082959</v>
+        <v>188.7224346891161</v>
       </c>
       <c r="F18" t="n">
-        <v>288.4697659082959</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="G18" t="n">
-        <v>150.2848336490975</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="H18" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="I18" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="J18" t="n">
-        <v>91.99734226147166</v>
+        <v>91.99734226147172</v>
       </c>
       <c r="K18" t="n">
-        <v>91.99734226147166</v>
+        <v>303.7504955284378</v>
       </c>
       <c r="L18" t="n">
-        <v>438.129985077913</v>
+        <v>649.8831383448792</v>
       </c>
       <c r="M18" t="n">
-        <v>894.0296748629685</v>
+        <v>1105.782828129935</v>
       </c>
       <c r="N18" t="n">
-        <v>1377.702686252226</v>
+        <v>1310.841828599076</v>
       </c>
       <c r="O18" t="n">
-        <v>1753.753320229596</v>
+        <v>1686.892462576446</v>
       </c>
       <c r="P18" t="n">
-        <v>2038.564039528555</v>
+        <v>1971.703181875405</v>
       </c>
       <c r="Q18" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R18" t="n">
-        <v>2042.117567525232</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S18" t="n">
-        <v>1878.839948962385</v>
+        <v>1946.116217237205</v>
       </c>
       <c r="T18" t="n">
-        <v>1678.853686831559</v>
+        <v>1746.12995510638</v>
       </c>
       <c r="U18" t="n">
-        <v>1450.665982591513</v>
+        <v>1517.942250866334</v>
       </c>
       <c r="V18" t="n">
-        <v>1215.51387435977</v>
+        <v>1282.790142634591</v>
       </c>
       <c r="W18" t="n">
-        <v>961.2765176315688</v>
+        <v>1028.552785906389</v>
       </c>
       <c r="X18" t="n">
-        <v>753.425017426036</v>
+        <v>820.7012857008565</v>
       </c>
       <c r="Y18" t="n">
-        <v>545.6647186610821</v>
+        <v>612.9409869359026</v>
       </c>
     </row>
     <row r="19">
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="C19" t="n">
-        <v>358.4475949563071</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="D19" t="n">
-        <v>358.4475949563071</v>
+        <v>377.2671384718784</v>
       </c>
       <c r="E19" t="n">
-        <v>211.4180761677546</v>
+        <v>229.3540448894853</v>
       </c>
       <c r="F19" t="n">
-        <v>211.4180761677546</v>
+        <v>82.46409739157494</v>
       </c>
       <c r="G19" t="n">
-        <v>42.18787671600103</v>
+        <v>82.46409739157494</v>
       </c>
       <c r="H19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="I19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="J19" t="n">
-        <v>42.18787671600103</v>
+        <v>42.18787671600105</v>
       </c>
       <c r="K19" t="n">
-        <v>72.25456008701801</v>
+        <v>72.25456008701806</v>
       </c>
       <c r="L19" t="n">
-        <v>166.2559978081031</v>
+        <v>166.2559978081032</v>
       </c>
       <c r="M19" t="n">
-        <v>275.7564570053806</v>
+        <v>275.7564570053808</v>
       </c>
       <c r="N19" t="n">
-        <v>388.0878564503603</v>
+        <v>388.0878564503605</v>
       </c>
       <c r="O19" t="n">
-        <v>475.8277896871618</v>
+        <v>475.8277896871621</v>
       </c>
       <c r="P19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="Q19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="R19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="S19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="T19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="U19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="V19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="W19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="X19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842142</v>
       </c>
       <c r="Y19" t="n">
-        <v>527.3837778842139</v>
+        <v>527.3837778842142</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>870.4274425801414</v>
+        <v>1801.217385823972</v>
       </c>
       <c r="C20" t="n">
-        <v>870.4274425801414</v>
+        <v>1801.217385823972</v>
       </c>
       <c r="D20" t="n">
-        <v>870.4274425801414</v>
+        <v>1442.951687217221</v>
       </c>
       <c r="E20" t="n">
-        <v>870.4274425801414</v>
+        <v>1057.163434618977</v>
       </c>
       <c r="F20" t="n">
-        <v>870.4274425801414</v>
+        <v>646.1775298293696</v>
       </c>
       <c r="G20" t="n">
-        <v>547.9107734836912</v>
+        <v>374.642865954865</v>
       </c>
       <c r="H20" t="n">
-        <v>215.4557842448272</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I20" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J20" t="n">
-        <v>115.2290882856225</v>
+        <v>115.2290882856227</v>
       </c>
       <c r="K20" t="n">
-        <v>345.4437346953284</v>
+        <v>345.4437346953286</v>
       </c>
       <c r="L20" t="n">
-        <v>683.3219880803409</v>
+        <v>683.3219880803413</v>
       </c>
       <c r="M20" t="n">
         <v>1075.883192613821</v>
       </c>
       <c r="N20" t="n">
-        <v>1460.164450300943</v>
+        <v>1460.164450300944</v>
       </c>
       <c r="O20" t="n">
-        <v>1777.842707170707</v>
+        <v>1777.842707170708</v>
       </c>
       <c r="P20" t="n">
-        <v>2011.299366755286</v>
+        <v>2011.299366755287</v>
       </c>
       <c r="Q20" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R20" t="n">
-        <v>2022.100492129411</v>
+        <v>2022.100492129412</v>
       </c>
       <c r="S20" t="n">
-        <v>1834.218536131508</v>
+        <v>2022.100492129412</v>
       </c>
       <c r="T20" t="n">
-        <v>1613.335429826067</v>
+        <v>1801.217385823972</v>
       </c>
       <c r="U20" t="n">
-        <v>1613.335429826067</v>
+        <v>1801.217385823972</v>
       </c>
       <c r="V20" t="n">
-        <v>1613.335429826067</v>
+        <v>1801.217385823972</v>
       </c>
       <c r="W20" t="n">
-        <v>1260.566774555953</v>
+        <v>1801.217385823972</v>
       </c>
       <c r="X20" t="n">
-        <v>1260.566774555953</v>
+        <v>1801.217385823972</v>
       </c>
       <c r="Y20" t="n">
-        <v>870.4274425801414</v>
+        <v>1801.217385823972</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>524.8127706638348</v>
+        <v>583.6144971087181</v>
       </c>
       <c r="C21" t="n">
-        <v>350.3597413827078</v>
+        <v>409.1614678275911</v>
       </c>
       <c r="D21" t="n">
-        <v>201.4253317214565</v>
+        <v>260.2270581663398</v>
       </c>
       <c r="E21" t="n">
-        <v>42.18787671600102</v>
+        <v>260.2270581663398</v>
       </c>
       <c r="F21" t="n">
-        <v>42.18787671600102</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="G21" t="n">
-        <v>42.18787671600102</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="H21" t="n">
-        <v>42.18787671600102</v>
+        <v>113.6925001932248</v>
       </c>
       <c r="I21" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J21" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K21" t="n">
-        <v>253.941029982967</v>
+        <v>162.8271385329678</v>
       </c>
       <c r="L21" t="n">
-        <v>600.0736727994083</v>
+        <v>508.9597813494092</v>
       </c>
       <c r="M21" t="n">
-        <v>1055.973362584464</v>
+        <v>964.8594711344648</v>
       </c>
       <c r="N21" t="n">
-        <v>1310.841828599075</v>
+        <v>1448.532482523723</v>
       </c>
       <c r="O21" t="n">
-        <v>1686.892462576445</v>
+        <v>1824.583116501093</v>
       </c>
       <c r="P21" t="n">
-        <v>1971.703181875404</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="Q21" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="R21" t="n">
-        <v>2109.393835800051</v>
+        <v>2109.393835800052</v>
       </c>
       <c r="S21" t="n">
-        <v>1946.116217237204</v>
+        <v>1946.116217237205</v>
       </c>
       <c r="T21" t="n">
-        <v>1746.129955106378</v>
+        <v>1885.018802299263</v>
       </c>
       <c r="U21" t="n">
-        <v>1517.942250866332</v>
+        <v>1656.831098059217</v>
       </c>
       <c r="V21" t="n">
-        <v>1282.79014263459</v>
+        <v>1421.678989827474</v>
       </c>
       <c r="W21" t="n">
-        <v>1108.63990665439</v>
+        <v>1167.441633099273</v>
       </c>
       <c r="X21" t="n">
-        <v>900.7884064488567</v>
+        <v>959.59013289374</v>
       </c>
       <c r="Y21" t="n">
-        <v>693.0281076839028</v>
+        <v>751.8298341287862</v>
       </c>
     </row>
     <row r="22">
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>42.18787671600102</v>
+        <v>237.9666078472534</v>
       </c>
       <c r="C22" t="n">
-        <v>42.18787671600102</v>
+        <v>237.9666078472534</v>
       </c>
       <c r="D22" t="n">
-        <v>42.18787671600102</v>
+        <v>237.9666078472534</v>
       </c>
       <c r="E22" t="n">
-        <v>42.18787671600102</v>
+        <v>90.05351426486033</v>
       </c>
       <c r="F22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="G22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="H22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="I22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="J22" t="n">
-        <v>42.18787671600102</v>
+        <v>42.18787671600104</v>
       </c>
       <c r="K22" t="n">
-        <v>72.25456008701799</v>
+        <v>72.25456008701805</v>
       </c>
       <c r="L22" t="n">
-        <v>166.255997808103</v>
+        <v>166.2559978081032</v>
       </c>
       <c r="M22" t="n">
-        <v>275.7564570053805</v>
+        <v>275.7564570053807</v>
       </c>
       <c r="N22" t="n">
-        <v>388.0878564503602</v>
+        <v>388.0878564503604</v>
       </c>
       <c r="O22" t="n">
-        <v>475.8277896871617</v>
+        <v>475.827789687162</v>
       </c>
       <c r="P22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="Q22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="R22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="S22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="T22" t="n">
-        <v>527.3837778842137</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="U22" t="n">
-        <v>331.6050467529616</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="V22" t="n">
-        <v>331.6050467529616</v>
+        <v>527.3837778842141</v>
       </c>
       <c r="W22" t="n">
-        <v>42.18787671600102</v>
+        <v>237.9666078472534</v>
       </c>
       <c r="X22" t="n">
-        <v>42.18787671600102</v>
+        <v>237.9666078472534</v>
       </c>
       <c r="Y22" t="n">
-        <v>42.18787671600102</v>
+        <v>237.9666078472534</v>
       </c>
     </row>
     <row r="23">
@@ -5965,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>976.0491016702019</v>
+        <v>1689.643533783874</v>
       </c>
       <c r="C23" t="n">
-        <v>976.0491016702019</v>
+        <v>1689.643533783874</v>
       </c>
       <c r="D23" t="n">
-        <v>617.7834030634515</v>
+        <v>1331.377835177124</v>
       </c>
       <c r="E23" t="n">
-        <v>617.7834030634515</v>
+        <v>945.5895825788796</v>
       </c>
       <c r="F23" t="n">
-        <v>206.7974982738439</v>
+        <v>534.603677789272</v>
       </c>
       <c r="G23" t="n">
-        <v>53.94298182036445</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H23" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I23" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J23" t="n">
         <v>169.7108380533141</v>
@@ -5995,7 +5995,7 @@
         <v>463.9616490733129</v>
       </c>
       <c r="L23" t="n">
-        <v>881.2824271224079</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M23" t="n">
         <v>1362.238747280443</v>
@@ -6007,34 +6007,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P23" t="n">
-        <v>2544.691559791252</v>
+        <v>2544.691559791253</v>
       </c>
       <c r="Q23" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R23" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="S23" t="n">
-        <v>2642.120401548716</v>
+        <v>2668.343799137013</v>
       </c>
       <c r="T23" t="n">
-        <v>2423.485734520778</v>
+        <v>2449.709132109076</v>
       </c>
       <c r="U23" t="n">
-        <v>2423.485734520778</v>
+        <v>2449.709132109076</v>
       </c>
       <c r="V23" t="n">
-        <v>2092.422847177208</v>
+        <v>2449.709132109076</v>
       </c>
       <c r="W23" t="n">
-        <v>1739.654191907093</v>
+        <v>2449.709132109076</v>
       </c>
       <c r="X23" t="n">
-        <v>1366.188433646014</v>
+        <v>2076.243373847996</v>
       </c>
       <c r="Y23" t="n">
-        <v>976.0491016702019</v>
+        <v>2076.243373847996</v>
       </c>
     </row>
     <row r="24">
@@ -6044,67 +6044,67 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170834</v>
       </c>
       <c r="C24" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359564</v>
       </c>
       <c r="D24" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747052</v>
       </c>
       <c r="E24" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692497</v>
       </c>
       <c r="F24" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961347</v>
       </c>
       <c r="G24" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H24" t="n">
-        <v>115.9856282673422</v>
+        <v>115.9856282673426</v>
       </c>
       <c r="I24" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J24" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K24" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L24" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M24" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N24" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O24" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P24" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q24" t="n">
-        <v>2697.149091018222</v>
+        <v>2697.149091018223</v>
       </c>
       <c r="R24" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S24" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T24" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U24" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V24" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W24" t="n">
         <v>1572.325111207638</v>
@@ -6113,7 +6113,7 @@
         <v>1364.473611002105</v>
       </c>
       <c r="Y24" t="n">
-        <v>1156.713312237151</v>
+        <v>1156.713312237152</v>
       </c>
     </row>
     <row r="25">
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="C25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="D25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="E25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="F25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="G25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="H25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="I25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="J25" t="n">
-        <v>53.94298182036445</v>
+        <v>53.94298182036446</v>
       </c>
       <c r="K25" t="n">
         <v>110.2451748866326</v>
       </c>
       <c r="L25" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M25" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N25" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O25" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R25" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S25" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="T25" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="U25" t="n">
-        <v>513.8405610245969</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="V25" t="n">
-        <v>490.2500993552354</v>
+        <v>513.8405610245972</v>
       </c>
       <c r="W25" t="n">
-        <v>200.8329293182748</v>
+        <v>502.7251118619119</v>
       </c>
       <c r="X25" t="n">
-        <v>200.8329293182748</v>
+        <v>274.7355609638946</v>
       </c>
       <c r="Y25" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036446</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1190.010945960184</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="C26" t="n">
-        <v>1190.010945960184</v>
+        <v>1198.223260609829</v>
       </c>
       <c r="D26" t="n">
-        <v>1190.010945960184</v>
+        <v>839.9575620030787</v>
       </c>
       <c r="E26" t="n">
-        <v>1190.010945960184</v>
+        <v>454.1693094048345</v>
       </c>
       <c r="F26" t="n">
-        <v>779.0250411705763</v>
+        <v>454.1693094048345</v>
       </c>
       <c r="G26" t="n">
-        <v>361.0612330687632</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H26" t="n">
         <v>53.94298182036445</v>
@@ -6253,25 +6253,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S26" t="n">
-        <v>2465.942913862886</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T26" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="U26" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="V26" t="n">
-        <v>1916.245359491378</v>
+        <v>2311.057514205145</v>
       </c>
       <c r="W26" t="n">
-        <v>1563.476704221264</v>
+        <v>1958.288858935031</v>
       </c>
       <c r="X26" t="n">
-        <v>1190.010945960184</v>
+        <v>1584.823100673951</v>
       </c>
       <c r="Y26" t="n">
-        <v>1190.010945960184</v>
+        <v>1584.823100673951</v>
       </c>
     </row>
     <row r="27">
@@ -6281,19 +6281,19 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C27" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D27" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E27" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F27" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G27" t="n">
         <v>221.4284102424006</v>
@@ -6308,40 +6308,40 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K27" t="n">
-        <v>384.4474646615928</v>
+        <v>266.2060027641987</v>
       </c>
       <c r="L27" t="n">
-        <v>789.0633827572647</v>
+        <v>670.8219208598706</v>
       </c>
       <c r="M27" t="n">
-        <v>1313.210296315296</v>
+        <v>1194.968834417901</v>
       </c>
       <c r="N27" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O27" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P27" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q27" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R27" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S27" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T27" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U27" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V27" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W27" t="n">
         <v>1572.325111207638</v>
@@ -6390,40 +6390,40 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L28" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M28" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N28" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O28" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T28" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U28" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610024</v>
       </c>
       <c r="V28" t="n">
-        <v>473.4444960005474</v>
+        <v>343.360151857325</v>
       </c>
       <c r="W28" t="n">
-        <v>184.0273259635867</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X28" t="n">
         <v>53.94298182036445</v>
@@ -6439,16 +6439,16 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1369.416431066817</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="C29" t="n">
-        <v>1000.453914126406</v>
+        <v>1626.94664591678</v>
       </c>
       <c r="D29" t="n">
-        <v>1000.453914126406</v>
+        <v>1268.68094731003</v>
       </c>
       <c r="E29" t="n">
-        <v>614.6656615281613</v>
+        <v>882.8926947117852</v>
       </c>
       <c r="F29" t="n">
         <v>471.9067899221776</v>
@@ -6463,19 +6463,19 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J29" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K29" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L29" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M29" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N29" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O29" t="n">
         <v>2238.843319642689</v>
@@ -6487,28 +6487,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S29" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T29" t="n">
-        <v>2697.149091018222</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U29" t="n">
-        <v>2443.387305656314</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="V29" t="n">
-        <v>2112.324418312743</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="W29" t="n">
-        <v>1759.555763042629</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="X29" t="n">
-        <v>1759.555763042629</v>
+        <v>2403.685817956713</v>
       </c>
       <c r="Y29" t="n">
-        <v>1369.416431066817</v>
+        <v>2013.546485980902</v>
       </c>
     </row>
     <row r="30">
@@ -6554,13 +6554,13 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N30" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O30" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P30" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q30" t="n">
         <v>2697.149091018222</v>
@@ -6597,16 +6597,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>667.7988452409105</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="C31" t="n">
-        <v>498.8626623130036</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D31" t="n">
-        <v>348.7460229006679</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E31" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F31" t="n">
         <v>53.94298182036445</v>
@@ -6651,22 +6651,22 @@
         <v>728.1289842064342</v>
       </c>
       <c r="T31" t="n">
-        <v>728.1289842064342</v>
+        <v>500.820796875036</v>
       </c>
       <c r="U31" t="n">
-        <v>728.1289842064342</v>
+        <v>211.6471865296039</v>
       </c>
       <c r="V31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="W31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="X31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="Y31" t="n">
-        <v>728.1289842064342</v>
+        <v>53.94298182036445</v>
       </c>
     </row>
     <row r="32">
@@ -6676,22 +6676,22 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>722.2873163082934</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="C32" t="n">
-        <v>722.2873163082934</v>
+        <v>1543.155461091169</v>
       </c>
       <c r="D32" t="n">
-        <v>722.2873163082934</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E32" t="n">
-        <v>722.2873163082934</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F32" t="n">
-        <v>722.2873163082934</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G32" t="n">
-        <v>304.3235082064803</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H32" t="n">
         <v>53.94298182036445</v>
@@ -6703,16 +6703,16 @@
         <v>169.7108380533142</v>
       </c>
       <c r="K32" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L32" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M32" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N32" t="n">
-        <v>1836.345445977175</v>
+        <v>1836.345445977174</v>
       </c>
       <c r="O32" t="n">
         <v>2238.843319642689</v>
@@ -6724,28 +6724,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S32" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T32" t="n">
-        <v>2423.485734520778</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U32" t="n">
-        <v>2169.72394915887</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V32" t="n">
-        <v>1838.661061815299</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="W32" t="n">
-        <v>1485.892406545185</v>
+        <v>2147.451536646714</v>
       </c>
       <c r="X32" t="n">
-        <v>1112.426648284105</v>
+        <v>1773.985778385635</v>
       </c>
       <c r="Y32" t="n">
-        <v>722.2873163082934</v>
+        <v>1773.985778385635</v>
       </c>
     </row>
     <row r="33">
@@ -6770,10 +6770,10 @@
         <v>359.3385232961342</v>
       </c>
       <c r="G33" t="n">
-        <v>221.4284102424003</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H33" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I33" t="n">
         <v>53.94298182036445</v>
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="C34" t="n">
-        <v>53.94298182036445</v>
+        <v>559.1928012785273</v>
       </c>
       <c r="D34" t="n">
-        <v>53.94298182036445</v>
+        <v>409.0761618661916</v>
       </c>
       <c r="E34" t="n">
-        <v>53.94298182036445</v>
+        <v>261.1630682837985</v>
       </c>
       <c r="F34" t="n">
-        <v>53.94298182036445</v>
+        <v>114.2731207858881</v>
       </c>
       <c r="G34" t="n">
         <v>53.94298182036445</v>
@@ -6882,28 +6882,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R34" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S34" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T34" t="n">
-        <v>138.3857151273827</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="X34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Y34" t="n">
-        <v>53.94298182036445</v>
+        <v>728.1289842064342</v>
       </c>
     </row>
     <row r="35">
@@ -6913,43 +6913,43 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1422.14692331494</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="C35" t="n">
-        <v>1422.14692331494</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="D35" t="n">
-        <v>1422.14692331494</v>
+        <v>1184.889762484419</v>
       </c>
       <c r="E35" t="n">
-        <v>1036.358670716696</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="F35" t="n">
-        <v>625.3727659270879</v>
+        <v>799.1015098861748</v>
       </c>
       <c r="G35" t="n">
-        <v>207.4089578252748</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H35" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I35" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J35" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533141</v>
       </c>
       <c r="K35" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L35" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M35" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N35" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O35" t="n">
         <v>2238.843319642689</v>
@@ -6961,28 +6961,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R35" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S35" t="n">
-        <v>2642.120401548716</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T35" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U35" t="n">
-        <v>2642.120401548716</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="V35" t="n">
-        <v>2311.057514205145</v>
+        <v>1971.274048960885</v>
       </c>
       <c r="W35" t="n">
-        <v>2198.886095354873</v>
+        <v>1618.50539369077</v>
       </c>
       <c r="X35" t="n">
-        <v>2198.886095354873</v>
+        <v>1245.039635429691</v>
       </c>
       <c r="Y35" t="n">
-        <v>1808.746763379062</v>
+        <v>1245.039635429691</v>
       </c>
     </row>
     <row r="36">
@@ -6992,19 +6992,19 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170833</v>
       </c>
       <c r="C36" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359563</v>
       </c>
       <c r="D36" t="n">
-        <v>665.1105362747047</v>
+        <v>665.1105362747051</v>
       </c>
       <c r="E36" t="n">
-        <v>505.8730812692492</v>
+        <v>505.8730812692495</v>
       </c>
       <c r="F36" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961344</v>
       </c>
       <c r="G36" t="n">
         <v>221.4284102424006</v>
@@ -7016,43 +7016,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J36" t="n">
-        <v>129.2001442204943</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K36" t="n">
-        <v>384.4474646615928</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L36" t="n">
-        <v>789.0633827572647</v>
+        <v>713.8062203571349</v>
       </c>
       <c r="M36" t="n">
-        <v>1313.210296315296</v>
+        <v>1237.953133915166</v>
       </c>
       <c r="N36" t="n">
-        <v>1866.936832414847</v>
+        <v>1791.679670014717</v>
       </c>
       <c r="O36" t="n">
-        <v>2307.072755435191</v>
+        <v>2231.815593035061</v>
       </c>
       <c r="P36" t="n">
-        <v>2643.31756905002</v>
+        <v>2568.06040664989</v>
       </c>
       <c r="Q36" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R36" t="n">
-        <v>2646.935720430047</v>
+        <v>2646.935720430048</v>
       </c>
       <c r="S36" t="n">
-        <v>2488.762748073963</v>
+        <v>2488.762748073964</v>
       </c>
       <c r="T36" t="n">
-        <v>2289.884200196742</v>
+        <v>2289.884200196743</v>
       </c>
       <c r="U36" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V36" t="n">
-        <v>1826.562467935839</v>
+        <v>1826.56246793584</v>
       </c>
       <c r="W36" t="n">
         <v>1572.325111207638</v>
@@ -7071,16 +7071,16 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>517.6822058285749</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C37" t="n">
-        <v>348.7460229006679</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D37" t="n">
-        <v>348.7460229006679</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E37" t="n">
-        <v>200.8329293182748</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F37" t="n">
         <v>53.94298182036445</v>
@@ -7131,16 +7131,16 @@
         <v>728.1289842064342</v>
       </c>
       <c r="V37" t="n">
-        <v>728.1289842064342</v>
+        <v>641.3898848520539</v>
       </c>
       <c r="W37" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X37" t="n">
-        <v>728.1289842064342</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y37" t="n">
-        <v>517.6822058285749</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="38">
@@ -7150,43 +7150,43 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1219.679656148628</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="C38" t="n">
-        <v>850.7171392082162</v>
+        <v>1215.960741127172</v>
       </c>
       <c r="D38" t="n">
-        <v>850.7171392082162</v>
+        <v>857.6950425204218</v>
       </c>
       <c r="E38" t="n">
-        <v>464.928886609972</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="F38" t="n">
-        <v>53.94298182036444</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I38" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J38" t="n">
         <v>169.7108380533141</v>
       </c>
       <c r="K38" t="n">
-        <v>463.9616490733126</v>
+        <v>463.9616490733129</v>
       </c>
       <c r="L38" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M38" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N38" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O38" t="n">
         <v>2238.843319642689</v>
@@ -7201,25 +7201,25 @@
         <v>2697.149091018222</v>
       </c>
       <c r="S38" t="n">
-        <v>2697.149091018222</v>
+        <v>2520.971603332393</v>
       </c>
       <c r="T38" t="n">
-        <v>2697.149091018222</v>
+        <v>2302.336936304455</v>
       </c>
       <c r="U38" t="n">
-        <v>2697.149091018222</v>
+        <v>2268.754800681269</v>
       </c>
       <c r="V38" t="n">
-        <v>2697.149091018222</v>
+        <v>1937.691913337698</v>
       </c>
       <c r="W38" t="n">
-        <v>2369.884586449641</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="X38" t="n">
-        <v>1996.418828188561</v>
+        <v>1584.923258067584</v>
       </c>
       <c r="Y38" t="n">
-        <v>1606.27949621275</v>
+        <v>1584.923258067584</v>
       </c>
     </row>
     <row r="39">
@@ -7229,28 +7229,28 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C39" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D39" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747047</v>
       </c>
       <c r="E39" t="n">
-        <v>505.8730812692495</v>
+        <v>505.8730812692492</v>
       </c>
       <c r="F39" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G39" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H39" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673422</v>
       </c>
       <c r="I39" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J39" t="n">
         <v>129.2001442204943</v>
@@ -7265,31 +7265,31 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N39" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O39" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P39" t="n">
-        <v>2643.31756905002</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q39" t="n">
         <v>2697.149091018222</v>
       </c>
       <c r="R39" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S39" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T39" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U39" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V39" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W39" t="n">
         <v>1572.325111207638</v>
@@ -7308,31 +7308,31 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>359.6044479702274</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="C40" t="n">
-        <v>359.6044479702274</v>
+        <v>509.3883323957195</v>
       </c>
       <c r="D40" t="n">
-        <v>359.6044479702274</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="E40" t="n">
-        <v>211.6913543878343</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="F40" t="n">
-        <v>211.6913543878343</v>
+        <v>359.2716929833838</v>
       </c>
       <c r="G40" t="n">
-        <v>211.6913543878343</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="H40" t="n">
-        <v>53.94298182036444</v>
+        <v>190.2718927217162</v>
       </c>
       <c r="I40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J40" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K40" t="n">
         <v>110.2451748866326</v>
@@ -7359,25 +7359,25 @@
         <v>728.1289842064342</v>
       </c>
       <c r="S40" t="n">
-        <v>728.1289842064342</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="T40" t="n">
-        <v>580.3970271137575</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="U40" t="n">
-        <v>580.3970271137575</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="V40" t="n">
-        <v>580.3970271137575</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="W40" t="n">
-        <v>580.3970271137575</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="X40" t="n">
-        <v>580.3970271137575</v>
+        <v>513.8405610245969</v>
       </c>
       <c r="Y40" t="n">
-        <v>359.6044479702274</v>
+        <v>513.8405610245969</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1860.708406770826</v>
+        <v>1491.915471247702</v>
       </c>
       <c r="C41" t="n">
-        <v>1860.708406770826</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="D41" t="n">
-        <v>1502.442708164076</v>
+        <v>1268.680947310029</v>
       </c>
       <c r="E41" t="n">
-        <v>1116.654455565832</v>
+        <v>882.8926947117851</v>
       </c>
       <c r="F41" t="n">
-        <v>705.668550776224</v>
+        <v>471.9067899221776</v>
       </c>
       <c r="G41" t="n">
-        <v>287.7047426744109</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="H41" t="n">
-        <v>207.4089578252748</v>
+        <v>53.94298182036444</v>
       </c>
       <c r="I41" t="n">
         <v>53.94298182036444</v>
@@ -7417,7 +7417,7 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L41" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M41" t="n">
         <v>1362.238747280443</v>
@@ -7438,25 +7438,25 @@
         <v>2642.120401548715</v>
       </c>
       <c r="S41" t="n">
-        <v>2465.942913862885</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="T41" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="U41" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="V41" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="W41" t="n">
-        <v>2247.308246834948</v>
+        <v>2642.120401548715</v>
       </c>
       <c r="X41" t="n">
-        <v>2247.308246834948</v>
+        <v>2268.654643287635</v>
       </c>
       <c r="Y41" t="n">
-        <v>2247.308246834948</v>
+        <v>1878.515311311824</v>
       </c>
     </row>
     <row r="42">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>538.7689125078492</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="C43" t="n">
-        <v>369.8327295799423</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D43" t="n">
-        <v>369.8327295799423</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E43" t="n">
-        <v>369.8327295799423</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F43" t="n">
-        <v>222.942782082032</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G43" t="n">
-        <v>53.94298182036444</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H43" t="n">
         <v>53.94298182036444</v>
@@ -7602,19 +7602,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U43" t="n">
-        <v>728.1289842064342</v>
+        <v>466.3758425937211</v>
       </c>
       <c r="V43" t="n">
-        <v>720.417377338089</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="W43" t="n">
-        <v>720.417377338089</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="X43" t="n">
-        <v>720.417377338089</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="Y43" t="n">
-        <v>720.417377338089</v>
+        <v>211.6913543878343</v>
       </c>
     </row>
     <row r="44">
@@ -7624,40 +7624,40 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1317.927233509</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="C44" t="n">
-        <v>948.9647165685883</v>
+        <v>1150.38930518072</v>
       </c>
       <c r="D44" t="n">
-        <v>857.6950425204218</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="E44" t="n">
-        <v>471.9067899221776</v>
+        <v>792.1236065739693</v>
       </c>
       <c r="F44" t="n">
-        <v>471.9067899221776</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="G44" t="n">
-        <v>53.94298182036444</v>
+        <v>381.1377017843616</v>
       </c>
       <c r="H44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I44" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J44" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K44" t="n">
-        <v>463.961649073312</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L44" t="n">
-        <v>881.2824271224068</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M44" t="n">
-        <v>1362.238747280442</v>
+        <v>1362.238747280443</v>
       </c>
       <c r="N44" t="n">
         <v>1836.345445977174</v>
@@ -7672,28 +7672,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S44" t="n">
-        <v>2642.120401548715</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="T44" t="n">
-        <v>2642.120401548715</v>
+        <v>2423.485734520778</v>
       </c>
       <c r="U44" t="n">
-        <v>2388.358616186807</v>
+        <v>2169.72394915887</v>
       </c>
       <c r="V44" t="n">
-        <v>2057.295728843236</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="W44" t="n">
-        <v>1704.527073573122</v>
+        <v>1838.661061815299</v>
       </c>
       <c r="X44" t="n">
-        <v>1704.527073573122</v>
+        <v>1536.989145244841</v>
       </c>
       <c r="Y44" t="n">
-        <v>1704.527073573122</v>
+        <v>1536.989145244841</v>
       </c>
     </row>
     <row r="45">
@@ -7703,34 +7703,34 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>988.4979752170825</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C45" t="n">
-        <v>814.0449459359555</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D45" t="n">
-        <v>665.1105362747043</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E45" t="n">
-        <v>505.8730812692488</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F45" t="n">
-        <v>359.3385232961338</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G45" t="n">
-        <v>221.4284102423999</v>
+        <v>221.4284102424003</v>
       </c>
       <c r="H45" t="n">
         <v>115.9856282673424</v>
       </c>
       <c r="I45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J45" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K45" t="n">
-        <v>309.1903022614629</v>
+        <v>309.190302261463</v>
       </c>
       <c r="L45" t="n">
         <v>713.8062203571349</v>
@@ -7739,13 +7739,13 @@
         <v>1237.953133915166</v>
       </c>
       <c r="N45" t="n">
-        <v>1791.679670014717</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O45" t="n">
-        <v>2231.815593035061</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P45" t="n">
-        <v>2568.06040664989</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q45" t="n">
         <v>2697.149091018222</v>
@@ -7766,10 +7766,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W45" t="n">
-        <v>1572.325111207637</v>
+        <v>1572.325111207638</v>
       </c>
       <c r="X45" t="n">
-        <v>1364.473611002104</v>
+        <v>1364.473611002105</v>
       </c>
       <c r="Y45" t="n">
         <v>1156.713312237151</v>
@@ -7782,31 +7782,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>365.6939024587809</v>
+        <v>222.8791647482714</v>
       </c>
       <c r="C46" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="D46" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="E46" t="n">
-        <v>365.6939024587809</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F46" t="n">
-        <v>218.8039549608706</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="H46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J46" t="n">
-        <v>53.94298182036444</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K46" t="n">
         <v>110.2451748866326</v>
@@ -7830,28 +7830,28 @@
         <v>728.1289842064342</v>
       </c>
       <c r="R46" t="n">
-        <v>579.9823256406182</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S46" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T46" t="n">
-        <v>365.6939024587809</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U46" t="n">
-        <v>365.6939024587809</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="V46" t="n">
-        <v>365.6939024587809</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="W46" t="n">
-        <v>365.6939024587809</v>
+        <v>671.6612947898188</v>
       </c>
       <c r="X46" t="n">
-        <v>365.6939024587809</v>
+        <v>443.6717438918015</v>
       </c>
       <c r="Y46" t="n">
-        <v>365.6939024587809</v>
+        <v>222.8791647482714</v>
       </c>
     </row>
   </sheetData>
@@ -8063,10 +8063,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L3" t="n">
-        <v>185.3423563661624</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M3" t="n">
-        <v>383.1483227996774</v>
+        <v>359.8407857361378</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
@@ -8078,7 +8078,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q3" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8300,10 +8300,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L6" t="n">
-        <v>369.8307175917693</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>383.1483227996774</v>
+        <v>382.1386950879875</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
@@ -8534,16 +8534,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3577389147212</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>231.1529892133073</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8552,7 +8552,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8768,13 +8768,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033746</v>
       </c>
       <c r="K12" t="n">
-        <v>50.57316300554226</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
-        <v>353.6167169118631</v>
+        <v>278.8061115155816</v>
       </c>
       <c r="M12" t="n">
         <v>465.7050637499999</v>
@@ -8789,7 +8789,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>210.0772877358491</v>
+        <v>70.99581912509464</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9005,7 +9005,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033748</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
@@ -9017,16 +9017,16 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N15" t="n">
-        <v>479.3423743435536</v>
+        <v>248.2266719449213</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>226.4285348520591</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>70.9958191250947</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9245,7 +9245,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>50.57316300554224</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>370.8403453034592</v>
@@ -9254,7 +9254,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N18" t="n">
-        <v>479.3423743435536</v>
+        <v>197.91408048485</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
@@ -9263,7 +9263,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>142.5410678841815</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9479,10 +9479,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>75.77844388033751</v>
+        <v>75.77844388033746</v>
       </c>
       <c r="K21" t="n">
-        <v>264.4652370125786</v>
+        <v>172.4310032247005</v>
       </c>
       <c r="L21" t="n">
         <v>370.8403453034592</v>
@@ -9491,7 +9491,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>248.2266719449207</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O21" t="n">
         <v>393.8623192767295</v>
@@ -9500,7 +9500,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
-        <v>210.0772877358491</v>
+        <v>70.99581912509464</v>
       </c>
       <c r="R21" t="n">
         <v>45.52166981132082</v>
@@ -9716,7 +9716,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J24" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270192</v>
       </c>
       <c r="K24" t="n">
         <v>264.4652370125786</v>
@@ -9737,7 +9737,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9956,7 +9956,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>145.0294169142008</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9974,7 +9974,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>90.64146763747121</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10202,7 +10202,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>359.9065542451756</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
         <v>393.8623192767295</v>
@@ -10211,7 +10211,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
-        <v>210.0772877358491</v>
+        <v>90.64146763747121</v>
       </c>
       <c r="R30" t="n">
         <v>45.52166981132082</v>
@@ -10664,7 +10664,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J36" t="n">
-        <v>126.0910353404088</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K36" t="n">
         <v>264.4652370125786</v>
@@ -10685,7 +10685,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>90.64146763747121</v>
+        <v>166.6588033951781</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10913,7 +10913,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>479.3423743435536</v>
+        <v>359.9065542451756</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
@@ -10922,7 +10922,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q39" t="n">
-        <v>90.64146763747075</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11150,7 +11150,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N42" t="n">
-        <v>359.9065542451752</v>
+        <v>359.9065542451751</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11299,7 +11299,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
-        <v>324.1454125711641</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L44" t="n">
         <v>417.6612145504504</v>
@@ -11308,7 +11308,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>437.346924411984</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11375,7 +11375,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>50.07369958270195</v>
+        <v>50.07369958270193</v>
       </c>
       <c r="K45" t="n">
         <v>264.4652370125786</v>
@@ -11387,7 +11387,7 @@
         <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>435.9238900028826</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11396,7 +11396,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>166.6588033951776</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22552,13 +22552,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>142.3976559772408</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>140.9160811946027</v>
       </c>
       <c r="F2" t="n">
-        <v>204.5813593128142</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
         <v>174.288448637476</v>
@@ -22591,7 +22591,7 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
@@ -22615,7 +22615,7 @@
         <v>128.71681180081</v>
       </c>
       <c r="Y2" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
@@ -22691,10 +22691,10 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>70.35882518776063</v>
       </c>
       <c r="Y3" t="n">
-        <v>175.8836868124217</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -22761,13 +22761,13 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>153.336030751223</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -22783,16 +22783,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>141.7195527858215</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>113.6687527430239</v>
       </c>
       <c r="E5" t="n">
-        <v>341.4540909391267</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -22807,7 +22807,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22834,10 +22834,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -22846,7 +22846,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>108.226679839754</v>
+        <v>246.9027416247241</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -22862,25 +22862,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>166.1942251482855</v>
       </c>
       <c r="C6" t="n">
         <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>89.39663285141508</v>
@@ -22913,25 +22913,25 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>109.9046055844363</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>10.68069428326055</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -22995,10 +22995,10 @@
         <v>224.0165980369723</v>
       </c>
       <c r="T7" t="n">
-        <v>227.9455894282815</v>
+        <v>94.75862184291347</v>
       </c>
       <c r="U7" t="n">
-        <v>153.1320617711229</v>
+        <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -23020,7 +23020,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>292.3449039254042</v>
+        <v>141.7195527858215</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -23044,7 +23044,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -23065,31 +23065,31 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>6.725383157348171</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -23105,16 +23105,16 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>124.9269485777754</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
         <v>112.2354442364965</v>
@@ -23123,7 +23123,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -23147,28 +23147,28 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>175.8836868124218</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -23257,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23275,10 +23275,10 @@
         <v>414.2926691378088</v>
       </c>
       <c r="H11" t="n">
-        <v>156.4513884253469</v>
+        <v>329.1304393464753</v>
       </c>
       <c r="I11" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>86.4204102339333</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>186.0031364379248</v>
+        <v>186.0031364379247</v>
       </c>
       <c r="T11" t="n">
-        <v>218.674275242386</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>226.1363170227927</v>
       </c>
     </row>
     <row r="12">
@@ -23348,16 +23348,16 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G12" t="n">
         <v>136.8030829366063</v>
       </c>
       <c r="H12" t="n">
-        <v>107.0159873637655</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -23384,16 +23384,16 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>66.60350559207137</v>
+        <v>44.87230542502944</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>79.28624954052111</v>
+        <v>197.9863995095175</v>
       </c>
       <c r="U12" t="n">
-        <v>0</v>
+        <v>225.9058271976456</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -23433,13 +23433,13 @@
         <v>167.537897457236</v>
       </c>
       <c r="H13" t="n">
-        <v>109.7989667159235</v>
+        <v>109.7989667159231</v>
       </c>
       <c r="I13" t="n">
         <v>141.8250664795777</v>
       </c>
       <c r="J13" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022414</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -23460,7 +23460,7 @@
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.22261241385098</v>
+        <v>48.22261241385095</v>
       </c>
       <c r="R13" t="n">
         <v>156.9211815276446</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -23503,19 +23503,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
-        <v>30.39684903629671</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>171.5352284535379</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23551,10 +23551,10 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>251.2648474376504</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -23563,7 +23563,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>324.7773039226942</v>
       </c>
     </row>
     <row r="15">
@@ -23573,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>62.7106195566864</v>
+        <v>0</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23585,7 +23585,7 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G15" t="n">
         <v>136.8030829366063</v>
@@ -23594,7 +23594,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I15" t="n">
-        <v>70.78957724245151</v>
+        <v>70.7895772424515</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23621,10 +23621,10 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207134</v>
       </c>
       <c r="S15" t="n">
-        <v>161.6448423772186</v>
+        <v>79.28624954052027</v>
       </c>
       <c r="T15" t="n">
         <v>0</v>
@@ -23664,19 +23664,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>167.537897457236</v>
       </c>
       <c r="H16" t="n">
-        <v>75.4136117031603</v>
+        <v>158.1988625129318</v>
       </c>
       <c r="I16" t="n">
         <v>141.8250664795777</v>
       </c>
       <c r="J16" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022414</v>
       </c>
       <c r="K16" t="n">
         <v>0</v>
@@ -23697,7 +23697,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385095</v>
       </c>
       <c r="R16" t="n">
         <v>156.9211815276446</v>
@@ -23709,13 +23709,13 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U16" t="n">
-        <v>286.2943157982424</v>
+        <v>92.47337197830251</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>344.0224191902129</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>414.2926691378088</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>329.1304393464753</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>171.5352284535379</v>
+        <v>93.69570380114942</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23782,10 +23782,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>186.0031364379247</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>218.674275242386</v>
       </c>
       <c r="U17" t="n">
         <v>251.2648474376504</v>
@@ -23794,13 +23794,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -23810,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>84.61867941292472</v>
+        <v>76.91039636926538</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23819,19 +23819,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E18" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>136.8030829366063</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>107.0159873637655</v>
       </c>
       <c r="I18" t="n">
-        <v>70.78957724245151</v>
+        <v>70.7895772424515</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -23858,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>66.60350559207134</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -23892,28 +23892,28 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8747390459022313</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>167.537897457236</v>
       </c>
       <c r="H19" t="n">
-        <v>158.1988625129318</v>
+        <v>118.3254040441137</v>
       </c>
       <c r="I19" t="n">
         <v>141.8250664795777</v>
       </c>
       <c r="J19" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022414</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -23934,7 +23934,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385095</v>
       </c>
       <c r="R19" t="n">
         <v>156.9211815276446</v>
@@ -23974,22 +23974,22 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>95.00116673232316</v>
+        <v>145.4733519020493</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>171.5352284535379</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24019,7 +24019,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>186.0031364379247</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24031,13 +24031,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -24056,10 +24056,10 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F21" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>136.8030829366063</v>
@@ -24068,7 +24068,7 @@
         <v>107.0159873637655</v>
       </c>
       <c r="I21" t="n">
-        <v>70.78957724245151</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -24095,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>66.60350559207137</v>
+        <v>66.60350559207134</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>137.4999587209552</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24110,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>79.2862495405216</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -24135,10 +24135,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>98.03406684956056</v>
       </c>
       <c r="G22" t="n">
         <v>167.537897457236</v>
@@ -24150,7 +24150,7 @@
         <v>141.8250664795777</v>
       </c>
       <c r="J22" t="n">
-        <v>61.32628970022417</v>
+        <v>61.32628970022414</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -24171,7 +24171,7 @@
         <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.22261241385097</v>
+        <v>48.22261241385095</v>
       </c>
       <c r="R22" t="n">
         <v>156.9211815276446</v>
@@ -24183,7 +24183,7 @@
         <v>226.0096940321479</v>
       </c>
       <c r="U22" t="n">
-        <v>92.47337197830285</v>
+        <v>286.2943157982424</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24205,7 +24205,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -24214,19 +24214,19 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>262.4581987318503</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H23" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,10 +24253,10 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S23" t="n">
-        <v>174.4157128089715</v>
+        <v>145.8984738465741</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -24265,16 +24265,16 @@
         <v>251.2241675082893</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W23" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X23" t="n">
         <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -24375,7 +24375,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>167.3098022590509</v>
@@ -24387,7 +24387,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J25" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R25" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24423,16 +24423,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V25" t="n">
-        <v>228.7830862711601</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>275.5187036655326</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>341.4828784765269</v>
       </c>
       <c r="H26" t="n">
-        <v>19.8757040284425</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>151.9313162448613</v>
@@ -24493,10 +24493,10 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U26" t="n">
         <v>251.2241675082893</v>
@@ -24624,7 +24624,7 @@
         <v>134.9656217923382</v>
       </c>
       <c r="J28" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R28" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S28" t="n">
         <v>212.1455389500189</v>
@@ -24657,16 +24657,16 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U28" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>157.4983735401874</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>96.92615468724708</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -24679,19 +24679,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>265.5447628517876</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -24727,22 +24727,22 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T29" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>231.622250109865</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X29" t="n">
         <v>369.731100678469</v>
@@ -24837,19 +24837,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>120.1051426060688</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>167.3098022590509</v>
@@ -24891,13 +24891,13 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T31" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>96.01048066168093</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -24919,13 +24919,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C32" t="n">
-        <v>365.2728917710076</v>
+        <v>136.750877649487</v>
       </c>
       <c r="D32" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -24934,7 +24934,7 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>76.04605164210253</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>151.9313162448613</v>
@@ -24964,7 +24964,7 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S32" t="n">
         <v>174.4157128089715</v>
@@ -24973,19 +24973,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="33">
@@ -25077,19 +25077,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>167.3098022590509</v>
+        <v>107.5829646831825</v>
       </c>
       <c r="H34" t="n">
         <v>156.1708888417951</v>
@@ -25122,16 +25122,16 @@
         <v>29.1227499549143</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U34" t="n">
-        <v>202.6835682680297</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D35" t="n">
-        <v>354.683041620683</v>
+        <v>295.134667404864</v>
       </c>
       <c r="E35" t="n">
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,13 +25201,13 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S35" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>251.2241675082893</v>
@@ -25216,13 +25216,13 @@
         <v>0</v>
       </c>
       <c r="W35" t="n">
-        <v>238.1912640556442</v>
+        <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="36">
@@ -25314,16 +25314,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>167.3098022590509</v>
@@ -25371,16 +25371,16 @@
         <v>286.2818742419777</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>166.2659349629915</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>10.24234275801405</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25390,22 +25390,22 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>323.9227727643571</v>
@@ -25441,25 +25441,25 @@
         <v>54.47840257481171</v>
       </c>
       <c r="S38" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>251.2241675082893</v>
+        <v>217.9778532413344</v>
       </c>
       <c r="V38" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>25.24910919451798</v>
+        <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="39">
@@ -25517,7 +25517,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>8.029132914089132e-13</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -25551,25 +25551,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>162.8391147560392</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>167.3098022590509</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I40" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>45.199959188537</v>
@@ -25599,10 +25599,10 @@
         <v>146.6651919801579</v>
       </c>
       <c r="S40" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>78.78046793633436</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U40" t="n">
         <v>286.2818742419777</v>
@@ -25617,7 +25617,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="41">
@@ -25630,10 +25630,10 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>365.2728917710076</v>
+        <v>144.2707130727118</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>0</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>244.4299457637124</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25678,10 +25678,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U41" t="n">
         <v>251.2241675082893</v>
@@ -25693,10 +25693,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25754,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>8.100187187665142e-13</v>
+        <v>8.029132914089132e-13</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -25797,19 +25797,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H43" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J43" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -25830,7 +25830,7 @@
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R43" t="n">
         <v>146.6651919801579</v>
@@ -25842,10 +25842,10 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U43" t="n">
-        <v>286.2818742419777</v>
+        <v>27.14626404539177</v>
       </c>
       <c r="V43" t="n">
-        <v>244.5031525241662</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -25867,22 +25867,22 @@
         <v>0</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D44" t="n">
-        <v>264.3260643129981</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F44" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H44" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>151.9313162448613</v>
@@ -25918,7 +25918,7 @@
         <v>174.4157128089715</v>
       </c>
       <c r="T44" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -25927,10 +25927,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X44" t="n">
-        <v>369.731100678469</v>
+        <v>71.07590327371605</v>
       </c>
       <c r="Y44" t="n">
         <v>386.2379386560536</v>
@@ -26025,7 +26025,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26034,19 +26034,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>4.097438849949839</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H46" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I46" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J46" t="n">
-        <v>45.19995918853701</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K46" t="n">
         <v>0</v>
@@ -26067,19 +26067,19 @@
         <v>0</v>
       </c>
       <c r="Q46" t="n">
-        <v>29.12274995491431</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>146.6651919801579</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T46" t="n">
         <v>225.0351054580843</v>
       </c>
       <c r="U46" t="n">
-        <v>286.2818742419777</v>
+        <v>230.3788617195285</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -26088,10 +26088,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>457180.0292414516</v>
+        <v>457180.0292414515</v>
       </c>
     </row>
     <row r="3">
@@ -26133,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>457180.0292414518</v>
+        <v>457180.0292414516</v>
       </c>
     </row>
     <row r="4">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>666707.9140724549</v>
+        <v>666707.9140724551</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>666707.9140724548</v>
+        <v>666707.9140724553</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>666707.9140724547</v>
+        <v>666707.9140724549</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>772770.7936813892</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>772770.7936813892</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813892</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>772770.7936813893</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>772770.7936813891</v>
+        <v>772770.7936813893</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>772770.7936813892</v>
+        <v>772770.7936813894</v>
       </c>
     </row>
   </sheetData>
@@ -26313,16 +26313,16 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>157852.6389047658</v>
+      </c>
+      <c r="C2" t="n">
         <v>157852.6389047657</v>
       </c>
-      <c r="C2" t="n">
+      <c r="D2" t="n">
         <v>157852.6389047658</v>
       </c>
-      <c r="D2" t="n">
-        <v>157852.6389047657</v>
-      </c>
       <c r="E2" t="n">
-        <v>235437.2422819575</v>
+        <v>235437.2422819576</v>
       </c>
       <c r="F2" t="n">
         <v>235437.2422819576</v>
@@ -26331,31 +26331,31 @@
         <v>235437.2422819576</v>
       </c>
       <c r="H2" t="n">
-        <v>235437.2422819575</v>
+        <v>235437.2422819576</v>
       </c>
       <c r="I2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="J2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="K2" t="n">
+        <v>274694.9795149697</v>
+      </c>
+      <c r="L2" t="n">
         <v>274694.9795149696</v>
       </c>
-      <c r="J2" t="n">
+      <c r="M2" t="n">
         <v>274694.9795149699</v>
       </c>
-      <c r="K2" t="n">
-        <v>274694.9795149696</v>
-      </c>
-      <c r="L2" t="n">
+      <c r="N2" t="n">
         <v>274694.9795149698</v>
       </c>
-      <c r="M2" t="n">
-        <v>274694.9795149698</v>
-      </c>
-      <c r="N2" t="n">
-        <v>274694.9795149696</v>
-      </c>
       <c r="O2" t="n">
-        <v>274694.9795149699</v>
+        <v>274694.9795149697</v>
       </c>
       <c r="P2" t="n">
-        <v>274694.9795149698</v>
+        <v>274694.9795149697</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>287351.7100134256</v>
+        <v>287351.7100134257</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,10 +26386,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>134288.7015116921</v>
+        <v>134288.701511692</v>
       </c>
       <c r="J3" t="n">
-        <v>63059.94259910623</v>
+        <v>63059.94259910619</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>71355.62051871086</v>
+        <v>71355.62051871094</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26426,13 +26426,13 @@
         <v>33649.84678425771</v>
       </c>
       <c r="E4" t="n">
-        <v>35144.55342918498</v>
+        <v>35144.55342918499</v>
       </c>
       <c r="F4" t="n">
         <v>35144.55342918499</v>
       </c>
       <c r="G4" t="n">
-        <v>35144.55342918498</v>
+        <v>35144.55342918499</v>
       </c>
       <c r="H4" t="n">
         <v>35144.55342918498</v>
@@ -26459,7 +26459,7 @@
         <v>35944.74664026682</v>
       </c>
       <c r="P4" t="n">
-        <v>35944.74664026681</v>
+        <v>35944.74664026682</v>
       </c>
     </row>
     <row r="5">
@@ -26478,19 +26478,19 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
+        <v>37540.1345973064</v>
+      </c>
+      <c r="F5" t="n">
+        <v>37540.1345973064</v>
+      </c>
+      <c r="G5" t="n">
+        <v>37540.1345973064</v>
+      </c>
+      <c r="H5" t="n">
         <v>37540.13459730639</v>
       </c>
-      <c r="F5" t="n">
-        <v>37540.13459730639</v>
-      </c>
-      <c r="G5" t="n">
-        <v>37540.13459730639</v>
-      </c>
-      <c r="H5" t="n">
-        <v>37540.13459730638</v>
-      </c>
       <c r="I5" t="n">
-        <v>49231.47806340946</v>
+        <v>49231.47806340947</v>
       </c>
       <c r="J5" t="n">
         <v>49231.47806340946</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-17065.91879484183</v>
+        <v>-6069.70923680538</v>
       </c>
       <c r="C6" t="n">
-        <v>63703.51273670592</v>
+        <v>74699.72229474231</v>
       </c>
       <c r="D6" t="n">
-        <v>63703.51273670583</v>
+        <v>74699.72229474234</v>
       </c>
       <c r="E6" t="n">
-        <v>-132733.766200253</v>
+        <v>-125412.6168021888</v>
       </c>
       <c r="F6" t="n">
-        <v>154617.9438131727</v>
+        <v>161939.0932112369</v>
       </c>
       <c r="G6" t="n">
-        <v>154617.9438131728</v>
+        <v>161939.0932112369</v>
       </c>
       <c r="H6" t="n">
-        <v>154617.9438131726</v>
+        <v>161939.0932112369</v>
       </c>
       <c r="I6" t="n">
-        <v>49161.639553782</v>
+        <v>54623.21192501951</v>
       </c>
       <c r="J6" t="n">
-        <v>120390.3984663681</v>
+        <v>125851.9708376053</v>
       </c>
       <c r="K6" t="n">
-        <v>183450.3410654741</v>
+        <v>188911.9134367115</v>
       </c>
       <c r="L6" t="n">
-        <v>183450.3410654743</v>
+        <v>188911.9134367114</v>
       </c>
       <c r="M6" t="n">
-        <v>112094.7205467634</v>
+        <v>117556.2929180008</v>
       </c>
       <c r="N6" t="n">
-        <v>183450.3410654741</v>
+        <v>188911.9134367116</v>
       </c>
       <c r="O6" t="n">
-        <v>183450.3410654744</v>
+        <v>188911.9134367115</v>
       </c>
       <c r="P6" t="n">
-        <v>183450.3410654743</v>
+        <v>188911.9134367115</v>
       </c>
     </row>
   </sheetData>
@@ -26746,22 +26746,22 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598903</v>
       </c>
       <c r="F3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598903</v>
       </c>
       <c r="G3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598903</v>
       </c>
       <c r="H3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598903</v>
       </c>
       <c r="I3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="J3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="K3" t="n">
         <v>377.7436642170866</v>
@@ -26798,19 +26798,19 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500131</v>
       </c>
       <c r="F4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500131</v>
       </c>
       <c r="G4" t="n">
-        <v>527.3484589500129</v>
+        <v>527.3484589500131</v>
       </c>
       <c r="H4" t="n">
-        <v>527.3484589500127</v>
+        <v>527.348458950013</v>
       </c>
       <c r="I4" t="n">
-        <v>674.2872727545556</v>
+        <v>674.2872727545557</v>
       </c>
       <c r="J4" t="n">
         <v>674.2872727545556</v>
@@ -26825,13 +26825,13 @@
         <v>674.2872727545556</v>
       </c>
       <c r="N4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O4" t="n">
         <v>674.2872727545555</v>
       </c>
       <c r="P4" t="n">
-        <v>674.2872727545555</v>
+        <v>674.2872727545556</v>
       </c>
     </row>
   </sheetData>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>251.2545088598901</v>
+        <v>251.2545088598903</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>126.4891553571965</v>
+        <v>126.4891553571964</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723541</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27032,10 +27032,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>146.9388138045429</v>
+        <v>146.9388138045427</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>286.3341700723538</v>
+        <v>286.3341700723541</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.010068377326191</v>
+        <v>1.010068377326192</v>
       </c>
       <c r="H11" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I11" t="n">
-        <v>38.940661116868</v>
+        <v>38.94066111686804</v>
       </c>
       <c r="J11" t="n">
-        <v>85.72829094008885</v>
+        <v>85.72829094008893</v>
       </c>
       <c r="K11" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L11" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549031</v>
       </c>
       <c r="M11" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601778</v>
       </c>
       <c r="N11" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372558</v>
       </c>
       <c r="O11" t="n">
-        <v>170.1851583102183</v>
+        <v>170.1851583102185</v>
       </c>
       <c r="P11" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449781</v>
       </c>
       <c r="Q11" t="n">
-        <v>109.0760214819837</v>
+        <v>109.0760214819838</v>
       </c>
       <c r="R11" t="n">
-        <v>63.44870770721638</v>
+        <v>63.44870770721644</v>
       </c>
       <c r="S11" t="n">
-        <v>23.01693314832059</v>
+        <v>23.01693314832061</v>
       </c>
       <c r="T11" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745406</v>
       </c>
       <c r="U11" t="n">
-        <v>0.08080547018609524</v>
+        <v>0.08080547018609531</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.540434226604292</v>
+        <v>0.5404342266042924</v>
       </c>
       <c r="H12" t="n">
-        <v>5.219456872730926</v>
+        <v>5.21945687273093</v>
       </c>
       <c r="I12" t="n">
-        <v>18.60705560896356</v>
+        <v>18.60705560896358</v>
       </c>
       <c r="J12" t="n">
-        <v>51.05918278632919</v>
+        <v>51.05918278632923</v>
       </c>
       <c r="K12" t="n">
-        <v>87.26827596881674</v>
+        <v>87.26827596881682</v>
       </c>
       <c r="L12" t="n">
-        <v>117.3429666142345</v>
+        <v>117.3429666142346</v>
       </c>
       <c r="M12" t="n">
-        <v>136.9337073286401</v>
+        <v>136.9337073286402</v>
       </c>
       <c r="N12" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026664</v>
       </c>
       <c r="O12" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973818</v>
       </c>
       <c r="P12" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q12" t="n">
-        <v>68.98595496092682</v>
+        <v>68.98595496092688</v>
       </c>
       <c r="R12" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057178</v>
       </c>
       <c r="S12" t="n">
-        <v>10.03832872661919</v>
+        <v>10.0383287266192</v>
       </c>
       <c r="T12" t="n">
-        <v>2.178329185304141</v>
+        <v>2.178329185304143</v>
       </c>
       <c r="U12" t="n">
-        <v>0.03555488332922975</v>
+        <v>0.03555488332922978</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4530819012227526</v>
+        <v>0.453081901222753</v>
       </c>
       <c r="H13" t="n">
-        <v>4.028309994507749</v>
+        <v>4.028309994507753</v>
       </c>
       <c r="I13" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J13" t="n">
-        <v>32.03289041644861</v>
+        <v>32.03289041644864</v>
       </c>
       <c r="K13" t="n">
-        <v>52.63987906933433</v>
+        <v>52.63987906933438</v>
       </c>
       <c r="L13" t="n">
-        <v>67.36092193269907</v>
+        <v>67.36092193269913</v>
       </c>
       <c r="M13" t="n">
-        <v>71.02264747985384</v>
+        <v>71.0226474798539</v>
       </c>
       <c r="N13" t="n">
-        <v>69.33388766620546</v>
+        <v>69.33388766620551</v>
       </c>
       <c r="O13" t="n">
-        <v>64.04106727464873</v>
+        <v>64.04106727464878</v>
       </c>
       <c r="P13" t="n">
-        <v>54.79819648970453</v>
+        <v>54.79819648970458</v>
       </c>
       <c r="Q13" t="n">
-        <v>37.9394308378434</v>
+        <v>37.93943083784344</v>
       </c>
       <c r="R13" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952487</v>
       </c>
       <c r="S13" t="n">
-        <v>7.895981860400149</v>
+        <v>7.895981860400156</v>
       </c>
       <c r="T13" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133581</v>
       </c>
       <c r="U13" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.02471355824851383</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31992,46 +31992,46 @@
         <v>1.010068377326191</v>
       </c>
       <c r="H14" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I14" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686804</v>
       </c>
       <c r="J14" t="n">
-        <v>85.72829094008885</v>
+        <v>85.72829094008891</v>
       </c>
       <c r="K14" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L14" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549031</v>
       </c>
       <c r="M14" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601777</v>
       </c>
       <c r="N14" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372558</v>
       </c>
       <c r="O14" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102185</v>
       </c>
       <c r="P14" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449781</v>
       </c>
       <c r="Q14" t="n">
         <v>109.0760214819838</v>
       </c>
       <c r="R14" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721643</v>
       </c>
       <c r="S14" t="n">
-        <v>23.01693314832059</v>
+        <v>23.01693314832061</v>
       </c>
       <c r="T14" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745405</v>
       </c>
       <c r="U14" t="n">
-        <v>0.08080547018609524</v>
+        <v>0.0808054701860953</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.540434226604292</v>
+        <v>0.5404342266042924</v>
       </c>
       <c r="H15" t="n">
-        <v>5.219456872730926</v>
+        <v>5.219456872730929</v>
       </c>
       <c r="I15" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896358</v>
       </c>
       <c r="J15" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632922</v>
       </c>
       <c r="K15" t="n">
-        <v>87.26827596881675</v>
+        <v>87.26827596881681</v>
       </c>
       <c r="L15" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M15" t="n">
-        <v>136.9337073286401</v>
+        <v>136.9337073286402</v>
       </c>
       <c r="N15" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026664</v>
       </c>
       <c r="O15" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973818</v>
       </c>
       <c r="P15" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q15" t="n">
-        <v>68.98595496092682</v>
+        <v>68.98595496092688</v>
       </c>
       <c r="R15" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057178</v>
       </c>
       <c r="S15" t="n">
-        <v>10.03832872661919</v>
+        <v>10.0383287266192</v>
       </c>
       <c r="T15" t="n">
-        <v>2.178329185304141</v>
+        <v>2.178329185304142</v>
       </c>
       <c r="U15" t="n">
-        <v>0.03555488332922975</v>
+        <v>0.03555488332922978</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.4530819012227529</v>
       </c>
       <c r="H16" t="n">
-        <v>4.028309994507749</v>
+        <v>4.028309994507752</v>
       </c>
       <c r="I16" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J16" t="n">
-        <v>32.03289041644861</v>
+        <v>32.03289041644863</v>
       </c>
       <c r="K16" t="n">
-        <v>52.63987906933434</v>
+        <v>52.63987906933438</v>
       </c>
       <c r="L16" t="n">
-        <v>67.36092193269907</v>
+        <v>67.36092193269911</v>
       </c>
       <c r="M16" t="n">
-        <v>71.02264747985384</v>
+        <v>71.02264747985389</v>
       </c>
       <c r="N16" t="n">
-        <v>69.33388766620546</v>
+        <v>69.33388766620551</v>
       </c>
       <c r="O16" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464878</v>
       </c>
       <c r="P16" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970457</v>
       </c>
       <c r="Q16" t="n">
-        <v>37.93943083784341</v>
+        <v>37.93943083784344</v>
       </c>
       <c r="R16" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952487</v>
       </c>
       <c r="S16" t="n">
-        <v>7.89598186040015</v>
+        <v>7.895981860400155</v>
       </c>
       <c r="T16" t="n">
-        <v>1.935895396133579</v>
+        <v>1.93589539613358</v>
       </c>
       <c r="U16" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.02471355824851383</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.010068377326191</v>
+        <v>1.010068377326192</v>
       </c>
       <c r="H17" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I17" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686804</v>
       </c>
       <c r="J17" t="n">
-        <v>85.72829094008885</v>
+        <v>85.72829094008893</v>
       </c>
       <c r="K17" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L17" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549031</v>
       </c>
       <c r="M17" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601778</v>
       </c>
       <c r="N17" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372558</v>
       </c>
       <c r="O17" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102185</v>
       </c>
       <c r="P17" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449781</v>
       </c>
       <c r="Q17" t="n">
         <v>109.0760214819838</v>
       </c>
       <c r="R17" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721644</v>
       </c>
       <c r="S17" t="n">
-        <v>23.01693314832059</v>
+        <v>23.01693314832061</v>
       </c>
       <c r="T17" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745406</v>
       </c>
       <c r="U17" t="n">
-        <v>0.08080547018609524</v>
+        <v>0.08080547018609531</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.540434226604292</v>
+        <v>0.5404342266042924</v>
       </c>
       <c r="H18" t="n">
-        <v>5.219456872730926</v>
+        <v>5.21945687273093</v>
       </c>
       <c r="I18" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896358</v>
       </c>
       <c r="J18" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632923</v>
       </c>
       <c r="K18" t="n">
-        <v>87.26827596881675</v>
+        <v>87.26827596881682</v>
       </c>
       <c r="L18" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M18" t="n">
-        <v>136.9337073286401</v>
+        <v>136.9337073286402</v>
       </c>
       <c r="N18" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026664</v>
       </c>
       <c r="O18" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973818</v>
       </c>
       <c r="P18" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q18" t="n">
-        <v>68.98595496092682</v>
+        <v>68.98595496092688</v>
       </c>
       <c r="R18" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057178</v>
       </c>
       <c r="S18" t="n">
-        <v>10.03832872661919</v>
+        <v>10.0383287266192</v>
       </c>
       <c r="T18" t="n">
-        <v>2.178329185304141</v>
+        <v>2.178329185304143</v>
       </c>
       <c r="U18" t="n">
-        <v>0.03555488332922975</v>
+        <v>0.03555488332922978</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.453081901222753</v>
       </c>
       <c r="H19" t="n">
-        <v>4.028309994507749</v>
+        <v>4.028309994507753</v>
       </c>
       <c r="I19" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J19" t="n">
-        <v>32.03289041644861</v>
+        <v>32.03289041644864</v>
       </c>
       <c r="K19" t="n">
-        <v>52.63987906933434</v>
+        <v>52.63987906933438</v>
       </c>
       <c r="L19" t="n">
-        <v>67.36092193269907</v>
+        <v>67.36092193269913</v>
       </c>
       <c r="M19" t="n">
-        <v>71.02264747985384</v>
+        <v>71.0226474798539</v>
       </c>
       <c r="N19" t="n">
-        <v>69.33388766620546</v>
+        <v>69.33388766620551</v>
       </c>
       <c r="O19" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464878</v>
       </c>
       <c r="P19" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970458</v>
       </c>
       <c r="Q19" t="n">
-        <v>37.93943083784341</v>
+        <v>37.93943083784344</v>
       </c>
       <c r="R19" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952487</v>
       </c>
       <c r="S19" t="n">
-        <v>7.89598186040015</v>
+        <v>7.895981860400156</v>
       </c>
       <c r="T19" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133581</v>
       </c>
       <c r="U19" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.02471355824851383</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.010068377326191</v>
+        <v>1.010068377326192</v>
       </c>
       <c r="H20" t="n">
-        <v>10.34436276929185</v>
+        <v>10.34436276929186</v>
       </c>
       <c r="I20" t="n">
-        <v>38.94066111686801</v>
+        <v>38.94066111686804</v>
       </c>
       <c r="J20" t="n">
-        <v>85.72829094008885</v>
+        <v>85.72829094008893</v>
       </c>
       <c r="K20" t="n">
-        <v>128.4844853523065</v>
+        <v>128.4844853523066</v>
       </c>
       <c r="L20" t="n">
-        <v>159.396365454903</v>
+        <v>159.3963654549031</v>
       </c>
       <c r="M20" t="n">
-        <v>177.3591689601776</v>
+        <v>177.3591689601778</v>
       </c>
       <c r="N20" t="n">
-        <v>180.2290257372557</v>
+        <v>180.2290257372558</v>
       </c>
       <c r="O20" t="n">
-        <v>170.1851583102184</v>
+        <v>170.1851583102185</v>
       </c>
       <c r="P20" t="n">
-        <v>145.249095244978</v>
+        <v>145.2490952449781</v>
       </c>
       <c r="Q20" t="n">
         <v>109.0760214819838</v>
       </c>
       <c r="R20" t="n">
-        <v>63.44870770721639</v>
+        <v>63.44870770721644</v>
       </c>
       <c r="S20" t="n">
-        <v>23.01693314832059</v>
+        <v>23.01693314832061</v>
       </c>
       <c r="T20" t="n">
-        <v>4.421574321745402</v>
+        <v>4.421574321745406</v>
       </c>
       <c r="U20" t="n">
-        <v>0.08080547018609524</v>
+        <v>0.08080547018609531</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.540434226604292</v>
+        <v>0.5404342266042924</v>
       </c>
       <c r="H21" t="n">
-        <v>5.219456872730926</v>
+        <v>5.21945687273093</v>
       </c>
       <c r="I21" t="n">
-        <v>18.60705560896357</v>
+        <v>18.60705560896358</v>
       </c>
       <c r="J21" t="n">
-        <v>51.0591827863292</v>
+        <v>51.05918278632923</v>
       </c>
       <c r="K21" t="n">
-        <v>87.26827596881675</v>
+        <v>87.26827596881682</v>
       </c>
       <c r="L21" t="n">
         <v>117.3429666142346</v>
       </c>
       <c r="M21" t="n">
-        <v>136.9337073286401</v>
+        <v>136.9337073286402</v>
       </c>
       <c r="N21" t="n">
-        <v>140.5579351026663</v>
+        <v>140.5579351026664</v>
       </c>
       <c r="O21" t="n">
-        <v>128.5830503973817</v>
+        <v>128.5830503973818</v>
       </c>
       <c r="P21" t="n">
         <v>103.199234025867</v>
       </c>
       <c r="Q21" t="n">
-        <v>68.98595496092682</v>
+        <v>68.98595496092688</v>
       </c>
       <c r="R21" t="n">
-        <v>33.55432856057175</v>
+        <v>33.55432856057178</v>
       </c>
       <c r="S21" t="n">
-        <v>10.03832872661919</v>
+        <v>10.0383287266192</v>
       </c>
       <c r="T21" t="n">
-        <v>2.178329185304141</v>
+        <v>2.178329185304143</v>
       </c>
       <c r="U21" t="n">
-        <v>0.03555488332922975</v>
+        <v>0.03555488332922978</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.4530819012227527</v>
+        <v>0.453081901222753</v>
       </c>
       <c r="H22" t="n">
-        <v>4.028309994507749</v>
+        <v>4.028309994507753</v>
       </c>
       <c r="I22" t="n">
-        <v>13.6254084476806</v>
+        <v>13.62540844768061</v>
       </c>
       <c r="J22" t="n">
-        <v>32.03289041644861</v>
+        <v>32.03289041644864</v>
       </c>
       <c r="K22" t="n">
-        <v>52.63987906933434</v>
+        <v>52.63987906933438</v>
       </c>
       <c r="L22" t="n">
-        <v>67.36092193269907</v>
+        <v>67.36092193269913</v>
       </c>
       <c r="M22" t="n">
-        <v>71.02264747985384</v>
+        <v>71.0226474798539</v>
       </c>
       <c r="N22" t="n">
-        <v>69.33388766620546</v>
+        <v>69.33388766620551</v>
       </c>
       <c r="O22" t="n">
-        <v>64.04106727464874</v>
+        <v>64.04106727464878</v>
       </c>
       <c r="P22" t="n">
-        <v>54.79819648970454</v>
+        <v>54.79819648970458</v>
       </c>
       <c r="Q22" t="n">
-        <v>37.93943083784341</v>
+        <v>37.93943083784344</v>
       </c>
       <c r="R22" t="n">
-        <v>20.37220984952485</v>
+        <v>20.37220984952487</v>
       </c>
       <c r="S22" t="n">
-        <v>7.89598186040015</v>
+        <v>7.895981860400156</v>
       </c>
       <c r="T22" t="n">
-        <v>1.935895396133579</v>
+        <v>1.935895396133581</v>
       </c>
       <c r="U22" t="n">
-        <v>0.02471355824851381</v>
+        <v>0.02471355824851383</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32706,19 +32706,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I23" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J23" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K23" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L23" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M23" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N23" t="n">
         <v>270.9617944338304</v>
@@ -32733,13 +32733,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R23" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S23" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T23" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U23" t="n">
         <v>0.1214853995472036</v>
@@ -32779,16 +32779,16 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H24" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I24" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J24" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K24" t="n">
         <v>131.2017781649102</v>
@@ -32806,22 +32806,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P24" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q24" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R24" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S24" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T24" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,16 +32858,16 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H25" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I25" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J25" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K25" t="n">
         <v>79.14039391302239</v>
@@ -32882,16 +32882,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O25" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P25" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R25" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S25" t="n">
         <v>11.87105908695336</v>
@@ -32943,19 +32943,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I26" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J26" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K26" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L26" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M26" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N26" t="n">
         <v>270.9617944338304</v>
@@ -32970,13 +32970,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R26" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S26" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T26" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U26" t="n">
         <v>0.1214853995472036</v>
@@ -33016,16 +33016,16 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H27" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I27" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J27" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K27" t="n">
         <v>131.2017781649102</v>
@@ -33043,22 +33043,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P27" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q27" t="n">
         <v>103.7155811639065</v>
       </c>
       <c r="R27" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S27" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T27" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,16 +33095,16 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H28" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I28" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J28" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K28" t="n">
         <v>79.14039391302239</v>
@@ -33119,16 +33119,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O28" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P28" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R28" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S28" t="n">
         <v>11.87105908695336</v>
@@ -34122,13 +34122,13 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H41" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I41" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J41" t="n">
         <v>128.8865178727436</v>
@@ -34146,22 +34146,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O41" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P41" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q41" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R41" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S41" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T41" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U41" t="n">
         <v>0.1214853995472036</v>
@@ -34201,16 +34201,16 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H42" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I42" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J42" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K42" t="n">
         <v>131.2017781649102</v>
@@ -34234,16 +34234,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R42" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S42" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T42" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,19 +34280,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H43" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I43" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J43" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K43" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L43" t="n">
         <v>101.2724571246924</v>
@@ -34304,13 +34304,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O43" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P43" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R43" t="n">
         <v>30.62819939701163</v>
@@ -34319,7 +34319,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T43" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U43" t="n">
         <v>0.0371551145131561</v>
@@ -34359,13 +34359,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H44" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I44" t="n">
-        <v>58.54457332554465</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J44" t="n">
         <v>128.8865178727436</v>
@@ -34383,22 +34383,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O44" t="n">
-        <v>255.8615389119865</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P44" t="n">
-        <v>218.3719038954666</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q44" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R44" t="n">
-        <v>95.39071536633796</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S44" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T44" t="n">
-        <v>6.647529206473552</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U44" t="n">
         <v>0.1214853995472036</v>
@@ -34438,16 +34438,16 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8125052400141107</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H45" t="n">
-        <v>7.847090081188913</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I45" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J45" t="n">
-        <v>76.76392708396475</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K45" t="n">
         <v>131.2017781649102</v>
@@ -34471,16 +34471,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R45" t="n">
-        <v>50.44659727034981</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S45" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T45" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05345429210619152</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,19 +34517,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.681177099407861</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H46" t="n">
-        <v>6.056283665644441</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I46" t="n">
-        <v>20.48485313492004</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J46" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K46" t="n">
-        <v>79.14039391302238</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L46" t="n">
         <v>101.2724571246924</v>
@@ -34541,13 +34541,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O46" t="n">
-        <v>96.28128674175842</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P46" t="n">
-        <v>82.38527391383799</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.03929329678007</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R46" t="n">
         <v>30.62819939701163</v>
@@ -34556,7 +34556,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T46" t="n">
-        <v>2.910483970197223</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U46" t="n">
         <v>0.0371551145131561</v>
@@ -34783,10 +34783,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>46.78797658628819</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>241.0142888776591</v>
+        <v>217.7067518141195</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
@@ -34798,7 +34798,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -35020,10 +35020,10 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>231.276337811895</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>241.0142888776591</v>
+        <v>240.0046611659691</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
@@ -35254,16 +35254,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>55.51629994036225</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35272,7 +35272,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35409,28 +35409,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>73.77900158547634</v>
+        <v>73.77900158547641</v>
       </c>
       <c r="K11" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L11" t="n">
-        <v>341.2911650353661</v>
+        <v>341.2911650353663</v>
       </c>
       <c r="M11" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257375</v>
       </c>
       <c r="N11" t="n">
-        <v>388.1628865526489</v>
+        <v>388.1628865526491</v>
       </c>
       <c r="O11" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512771</v>
       </c>
       <c r="P11" t="n">
-        <v>235.8148076611911</v>
+        <v>235.8148076611912</v>
       </c>
       <c r="Q11" t="n">
-        <v>99.08532226743894</v>
+        <v>99.08532226743904</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35491,25 +35491,25 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L12" t="n">
-        <v>332.4053037462235</v>
+        <v>257.594698349942</v>
       </c>
       <c r="M12" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566218</v>
       </c>
       <c r="N12" t="n">
-        <v>488.5585973628865</v>
+        <v>488.5585973628866</v>
       </c>
       <c r="O12" t="n">
-        <v>379.8491252296668</v>
+        <v>379.8491252296669</v>
       </c>
       <c r="P12" t="n">
-        <v>287.6875952514739</v>
+        <v>287.687595251474</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35570,22 +35570,22 @@
         <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>30.37038724345148</v>
+        <v>30.37038724345153</v>
       </c>
       <c r="L13" t="n">
-        <v>94.95094719301521</v>
+        <v>94.95094719301527</v>
       </c>
       <c r="M13" t="n">
-        <v>110.6065244416944</v>
+        <v>110.6065244416945</v>
       </c>
       <c r="N13" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O13" t="n">
-        <v>88.6261951886884</v>
+        <v>88.62619518868846</v>
       </c>
       <c r="P13" t="n">
-        <v>52.07675575459802</v>
+        <v>52.07675575459807</v>
       </c>
       <c r="Q13" t="n">
         <v>0</v>
@@ -35646,28 +35646,28 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>73.77900158547634</v>
+        <v>73.77900158547639</v>
       </c>
       <c r="K14" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L14" t="n">
         <v>341.2911650353662</v>
       </c>
       <c r="M14" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257375</v>
       </c>
       <c r="N14" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526491</v>
       </c>
       <c r="O14" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512771</v>
       </c>
       <c r="P14" t="n">
-        <v>235.8148076611911</v>
+        <v>235.8148076611912</v>
       </c>
       <c r="Q14" t="n">
-        <v>99.08532226743895</v>
+        <v>99.08532226743903</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,25 +35728,25 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>213.8920740070363</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L15" t="n">
         <v>349.6289321378196</v>
       </c>
       <c r="M15" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566218</v>
       </c>
       <c r="N15" t="n">
-        <v>488.5585973628865</v>
+        <v>257.4428949642544</v>
       </c>
       <c r="O15" t="n">
-        <v>379.8491252296668</v>
+        <v>379.8491252296669</v>
       </c>
       <c r="P15" t="n">
-        <v>195.6533614635958</v>
+        <v>287.687595251474</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>139.0814686107545</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35807,22 +35807,22 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>30.37038724345149</v>
+        <v>30.37038724345152</v>
       </c>
       <c r="L16" t="n">
-        <v>94.95094719301521</v>
+        <v>94.95094719301525</v>
       </c>
       <c r="M16" t="n">
-        <v>110.6065244416944</v>
+        <v>110.6065244416945</v>
       </c>
       <c r="N16" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O16" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868846</v>
       </c>
       <c r="P16" t="n">
-        <v>52.07675575459803</v>
+        <v>52.07675575459806</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35883,28 +35883,28 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>73.77900158547634</v>
+        <v>73.77900158547641</v>
       </c>
       <c r="K17" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L17" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353663</v>
       </c>
       <c r="M17" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257375</v>
       </c>
       <c r="N17" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526491</v>
       </c>
       <c r="O17" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512771</v>
       </c>
       <c r="P17" t="n">
-        <v>235.8148076611911</v>
+        <v>235.8148076611912</v>
       </c>
       <c r="Q17" t="n">
-        <v>99.08532226743895</v>
+        <v>99.08532226743904</v>
       </c>
       <c r="R17" t="n">
         <v>0</v>
@@ -35962,28 +35962,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>50.31259146007134</v>
+        <v>50.31259146007137</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>213.8920740070364</v>
       </c>
       <c r="L18" t="n">
         <v>349.6289321378196</v>
       </c>
       <c r="M18" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566218</v>
       </c>
       <c r="N18" t="n">
-        <v>488.5585973628865</v>
+        <v>207.130303504183</v>
       </c>
       <c r="O18" t="n">
-        <v>379.8491252296668</v>
+        <v>379.8491252296669</v>
       </c>
       <c r="P18" t="n">
-        <v>287.6875952514739</v>
+        <v>287.687595251474</v>
       </c>
       <c r="Q18" t="n">
-        <v>71.54524875908685</v>
+        <v>139.0814686107545</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36044,22 +36044,22 @@
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>30.37038724345149</v>
+        <v>30.37038724345153</v>
       </c>
       <c r="L19" t="n">
-        <v>94.95094719301521</v>
+        <v>94.95094719301527</v>
       </c>
       <c r="M19" t="n">
-        <v>110.6065244416944</v>
+        <v>110.6065244416945</v>
       </c>
       <c r="N19" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O19" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868846</v>
       </c>
       <c r="P19" t="n">
-        <v>52.07675575459803</v>
+        <v>52.07675575459807</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
@@ -36120,28 +36120,28 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>73.77900158547634</v>
+        <v>73.77900158547641</v>
       </c>
       <c r="K20" t="n">
-        <v>232.5400468784907</v>
+        <v>232.5400468784908</v>
       </c>
       <c r="L20" t="n">
-        <v>341.2911650353662</v>
+        <v>341.2911650353663</v>
       </c>
       <c r="M20" t="n">
-        <v>396.5264692257374</v>
+        <v>396.5264692257375</v>
       </c>
       <c r="N20" t="n">
-        <v>388.162886552649</v>
+        <v>388.1628865526491</v>
       </c>
       <c r="O20" t="n">
-        <v>320.887128151277</v>
+        <v>320.8871281512771</v>
       </c>
       <c r="P20" t="n">
-        <v>235.8148076611911</v>
+        <v>235.8148076611912</v>
       </c>
       <c r="Q20" t="n">
-        <v>99.08532226743895</v>
+        <v>99.08532226743904</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36202,25 +36202,25 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>213.8920740070363</v>
+        <v>121.8578402191584</v>
       </c>
       <c r="L21" t="n">
         <v>349.6289321378196</v>
       </c>
       <c r="M21" t="n">
-        <v>460.5047371566217</v>
+        <v>460.5047371566218</v>
       </c>
       <c r="N21" t="n">
-        <v>257.4428949642537</v>
+        <v>488.5585973628866</v>
       </c>
       <c r="O21" t="n">
-        <v>379.8491252296668</v>
+        <v>379.8491252296669</v>
       </c>
       <c r="P21" t="n">
-        <v>287.6875952514739</v>
+        <v>287.687595251474</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.0814686107544</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36281,22 +36281,22 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>30.37038724345149</v>
+        <v>30.37038724345153</v>
       </c>
       <c r="L22" t="n">
-        <v>94.95094719301521</v>
+        <v>94.95094719301527</v>
       </c>
       <c r="M22" t="n">
-        <v>110.6065244416944</v>
+        <v>110.6065244416945</v>
       </c>
       <c r="N22" t="n">
-        <v>113.466060045434</v>
+        <v>113.4660600454341</v>
       </c>
       <c r="O22" t="n">
-        <v>88.62619518868841</v>
+        <v>88.62619518868846</v>
       </c>
       <c r="P22" t="n">
-        <v>52.07675575459803</v>
+        <v>52.07675575459807</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -36357,19 +36357,19 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K23" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L23" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M23" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N23" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O23" t="n">
         <v>406.5635087530452</v>
@@ -36436,7 +36436,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>257.8255762031298</v>
@@ -36448,16 +36448,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N24" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O24" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P24" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q24" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36594,19 +36594,19 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K26" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L26" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M26" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N26" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O26" t="n">
         <v>406.5635087530452</v>
@@ -36673,10 +36673,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K27" t="n">
-        <v>257.8255762031298</v>
+        <v>138.389756104752</v>
       </c>
       <c r="L27" t="n">
         <v>408.7029475713857</v>
@@ -36685,16 +36685,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N27" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O27" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P27" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q27" t="n">
-        <v>54.37527471535621</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36922,7 +36922,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N30" t="n">
-        <v>439.8839133355123</v>
+        <v>559.3197334338902</v>
       </c>
       <c r="O30" t="n">
         <v>444.5817404245898</v>
@@ -36931,7 +36931,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q30" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535621</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37384,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>76.0173357577069</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>257.8255762031298</v>
@@ -37405,7 +37405,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q36" t="n">
-        <v>54.37527471535621</v>
+        <v>130.3926104730631</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37633,7 +37633,7 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N39" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O39" t="n">
         <v>444.5817404245898</v>
@@ -37642,7 +37642,7 @@
         <v>339.6412258735646</v>
       </c>
       <c r="Q39" t="n">
-        <v>54.37527471535575</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37794,10 +37794,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O41" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P41" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q41" t="n">
         <v>153.9975062898689</v>
@@ -37858,7 +37858,7 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>76.01733575770689</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K42" t="n">
         <v>257.8255762031298</v>
@@ -37873,7 +37873,7 @@
         <v>439.8839133355119</v>
       </c>
       <c r="O42" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P42" t="n">
         <v>339.6412258735646</v>
@@ -37940,7 +37940,7 @@
         <v>0</v>
       </c>
       <c r="K43" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L43" t="n">
         <v>128.8624823850085</v>
@@ -37955,7 +37955,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P43" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q43" t="n">
         <v>0</v>
@@ -38019,7 +38019,7 @@
         <v>116.937228518131</v>
       </c>
       <c r="K44" t="n">
-        <v>297.2230414343413</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L44" t="n">
         <v>421.5361394435301</v>
@@ -38028,13 +38028,13 @@
         <v>485.8144648060965</v>
       </c>
       <c r="N44" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492235</v>
       </c>
       <c r="O44" t="n">
-        <v>406.5635087530451</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P44" t="n">
-        <v>308.9376163116797</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q44" t="n">
         <v>153.9975062898689</v>
@@ -38107,16 +38107,16 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N45" t="n">
-        <v>559.3197334338902</v>
+        <v>515.9012490932192</v>
       </c>
       <c r="O45" t="n">
-        <v>444.5817404245897</v>
+        <v>444.5817404245898</v>
       </c>
       <c r="P45" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q45" t="n">
-        <v>130.3926104730626</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38177,7 +38177,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>56.87090208713953</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L46" t="n">
         <v>128.8624823850085</v>
@@ -38192,7 +38192,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P46" t="n">
-        <v>79.66383317873148</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
